--- a/Market trand prediction/Lich_su_giao_dich.xlsx
+++ b/Market trand prediction/Lich_su_giao_dich.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Desktop\HTTQD\Hệ hỗ trợ git\H-h-tr-quy-t-nh\Market trand prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF251319-8B29-47D1-9201-DD67400C3AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD65C6-E1BA-4DF1-8F20-E8759045DBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{623911EA-F04D-402B-9B38-EDB1586B537D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{623911EA-F04D-402B-9B38-EDB1586B537D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -54,312 +58,6 @@
   </si>
   <si>
     <t>Value_agr</t>
-  </si>
-  <si>
-    <t>2024-6-5</t>
-  </si>
-  <si>
-    <t>2024-6-4</t>
-  </si>
-  <si>
-    <t>2024-6-3</t>
-  </si>
-  <si>
-    <t>2024-05-31</t>
-  </si>
-  <si>
-    <t>2024-05-30</t>
-  </si>
-  <si>
-    <t>2024-05-29</t>
-  </si>
-  <si>
-    <t>2024-05-28</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>2024-05-24</t>
-  </si>
-  <si>
-    <t>2024-05-23</t>
-  </si>
-  <si>
-    <t>2024-05-22</t>
-  </si>
-  <si>
-    <t>2024-05-21</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>2024-05-16</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>2024-05-14</t>
-  </si>
-  <si>
-    <t>2024-05-13</t>
-  </si>
-  <si>
-    <t>2024-5-10</t>
-  </si>
-  <si>
-    <t>2024-5-9</t>
-  </si>
-  <si>
-    <t>2024-5-8</t>
-  </si>
-  <si>
-    <t>2024-5-7</t>
-  </si>
-  <si>
-    <t>2024-5-6</t>
-  </si>
-  <si>
-    <t>2024-5-3</t>
-  </si>
-  <si>
-    <t>2024-5-2</t>
-  </si>
-  <si>
-    <t>2024-04-26</t>
-  </si>
-  <si>
-    <t>2024-04-25</t>
-  </si>
-  <si>
-    <t>2024-04-24</t>
-  </si>
-  <si>
-    <t>2024-04-23</t>
-  </si>
-  <si>
-    <t>2024-04-22</t>
-  </si>
-  <si>
-    <t>2024-04-19</t>
-  </si>
-  <si>
-    <t>2024-04-17</t>
-  </si>
-  <si>
-    <t>2024-04-16</t>
-  </si>
-  <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
-    <t>2024-4-12</t>
-  </si>
-  <si>
-    <t>2024-4-11</t>
-  </si>
-  <si>
-    <t>2024-4-10</t>
-  </si>
-  <si>
-    <t>2024-4-9</t>
-  </si>
-  <si>
-    <t>2024-4-8</t>
-  </si>
-  <si>
-    <t>2024-4-5</t>
-  </si>
-  <si>
-    <t>2024-4-4</t>
-  </si>
-  <si>
-    <t>2024-4-3</t>
-  </si>
-  <si>
-    <t>2024-4-2</t>
-  </si>
-  <si>
-    <t>2024-4-1</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
-    <t>2024-03-26</t>
-  </si>
-  <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>2024-03-21</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>2024-03-19</t>
-  </si>
-  <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
-    <t>2024-03-15</t>
-  </si>
-  <si>
-    <t>2024-03-14</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>2024-3-12</t>
-  </si>
-  <si>
-    <t>2024-3-11</t>
-  </si>
-  <si>
-    <t>2024-3-8</t>
-  </si>
-  <si>
-    <t>2024-3-7</t>
-  </si>
-  <si>
-    <t>2024-3-6</t>
-  </si>
-  <si>
-    <t>2024-3-5</t>
-  </si>
-  <si>
-    <t>2024-3-4</t>
-  </si>
-  <si>
-    <t>2024-3-1</t>
-  </si>
-  <si>
-    <t>2024-02-29</t>
-  </si>
-  <si>
-    <t>2024-02-28</t>
-  </si>
-  <si>
-    <t>2024-02-27</t>
-  </si>
-  <si>
-    <t>2024-02-26</t>
-  </si>
-  <si>
-    <t>2024-02-23</t>
-  </si>
-  <si>
-    <t>2024-02-22</t>
-  </si>
-  <si>
-    <t>2024-02-21</t>
-  </si>
-  <si>
-    <t>2024-02-20</t>
-  </si>
-  <si>
-    <t>2024-02-19</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
-  </si>
-  <si>
-    <t>2024-02-15</t>
-  </si>
-  <si>
-    <t>2024-2-7</t>
-  </si>
-  <si>
-    <t>2024-2-6</t>
-  </si>
-  <si>
-    <t>2024-2-5</t>
-  </si>
-  <si>
-    <t>2024-2-2</t>
-  </si>
-  <si>
-    <t>2024-2-1</t>
-  </si>
-  <si>
-    <t>2024-01-31</t>
-  </si>
-  <si>
-    <t>2024-01-30</t>
-  </si>
-  <si>
-    <t>2024-01-29</t>
-  </si>
-  <si>
-    <t>2024-01-26</t>
-  </si>
-  <si>
-    <t>2024-01-25</t>
-  </si>
-  <si>
-    <t>2024-01-24</t>
-  </si>
-  <si>
-    <t>2024-01-23</t>
-  </si>
-  <si>
-    <t>2024-01-22</t>
-  </si>
-  <si>
-    <t>2024-01-19</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>2024-01-17</t>
-  </si>
-  <si>
-    <t>2024-01-16</t>
-  </si>
-  <si>
-    <t>2024-01-15</t>
-  </si>
-  <si>
-    <t>2024-1-12</t>
-  </si>
-  <si>
-    <t>2024-1-11</t>
-  </si>
-  <si>
-    <t>2024-1-10</t>
-  </si>
-  <si>
-    <t>2024-1-9</t>
-  </si>
-  <si>
-    <t>2024-1-8</t>
-  </si>
-  <si>
-    <t>2024-1-5</t>
-  </si>
-  <si>
-    <t>2024-1-4</t>
-  </si>
-  <si>
-    <t>2024-1-3</t>
-  </si>
-  <si>
-    <t>2024-1-2</t>
   </si>
   <si>
     <t>OpenValue</t>
@@ -403,15 +101,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -419,11 +123,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -440,11 +181,320 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -455,6 +505,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D5FF799-0B95-4C82-98EA-081A0C647AD2}" name="Table1" displayName="Table1" ref="A1:L103" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+  <autoFilter ref="A1:L103" xr:uid="{6D5FF799-0B95-4C82-98EA-081A0C647AD2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L103">
+    <sortCondition descending="1" ref="A1:A103"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{B003AC8B-E31C-4E48-91F7-7EBC47F8C0E7}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F826C580-720F-4847-AD74-5ECAA90FDF5F}" name="CloseValue" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{8EFEF670-493B-412C-9326-984880913FF2}" name="Adjust" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BF4C1BC1-9BFF-4F3A-8DB9-FF90DF338EF1}" name="Change " dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{8084EAEB-81C6-4877-A9BD-D6EEC04C7BD3}" name="Change_pc" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{6B966EAE-6CA0-4327-BBAB-FB6158BC227E}" name="Volumn_trade" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{5FAF243C-DDB9-4F45-9E31-026E61BEAB8C}" name="Value_trade" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{CA317994-6DD4-44D4-8583-ED4D77FBD7A8}" name="Volumn_agr" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{026F8436-600C-45D8-967D-1FAF407089FB}" name="Value_agr" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{CBC6DA1A-31C2-45BE-9329-302CEA2B73C2}" name="OpenValue" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{7AAF24AA-B800-4CC6-9A78-6C50AD59F9EA}" name="HighValue" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{73F19403-DF1B-4949-AA96-96C2CFE908A2}" name="LowValue" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -776,18 +850,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C0E636-89DF-427D-BF89-C65E38BD021A}">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.9296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.06640625" customWidth="1"/>
     <col min="4" max="5" width="12.06640625" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.73046875" customWidth="1"/>
     <col min="8" max="8" width="13.73046875" customWidth="1"/>
     <col min="9" max="9" width="13.53125" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
@@ -795,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -807,10 +885,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -819,18 +897,18 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
+      <c r="A2" s="4">
+        <v>45448</v>
       </c>
       <c r="B2" s="1">
         <v>1284.3499999999999</v>
@@ -867,8 +945,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+      <c r="A3" s="4">
+        <v>45447</v>
       </c>
       <c r="B3" s="1">
         <v>1283.52</v>
@@ -905,8 +983,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
+      <c r="A4" s="4">
+        <v>45446</v>
       </c>
       <c r="B4" s="1">
         <v>1280</v>
@@ -943,8 +1021,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
+      <c r="A5" s="4">
+        <v>45443</v>
       </c>
       <c r="B5" s="1">
         <v>1261.72</v>
@@ -981,8 +1059,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
+      <c r="A6" s="4">
+        <v>45442</v>
       </c>
       <c r="B6" s="1">
         <v>1266.32</v>
@@ -1019,8 +1097,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
+      <c r="A7" s="4">
+        <v>45441</v>
       </c>
       <c r="B7" s="1">
         <v>1272.6400000000001</v>
@@ -1057,8 +1135,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
+      <c r="A8" s="4">
+        <v>45440</v>
       </c>
       <c r="B8" s="1">
         <v>1281.73</v>
@@ -1095,8 +1173,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
+      <c r="A9" s="4">
+        <v>45439</v>
       </c>
       <c r="B9" s="1">
         <v>1267.68</v>
@@ -1133,8 +1211,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
+      <c r="A10" s="4">
+        <v>45436</v>
       </c>
       <c r="B10" s="1">
         <v>1261.93</v>
@@ -1171,8 +1249,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
+      <c r="A11" s="4">
+        <v>45435</v>
       </c>
       <c r="B11" s="1">
         <v>1281.03</v>
@@ -1209,8 +1287,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
+      <c r="A12" s="4">
+        <v>45434</v>
       </c>
       <c r="B12" s="1">
         <v>1266.9100000000001</v>
@@ -1247,8 +1325,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
+      <c r="A13" s="4">
+        <v>45433</v>
       </c>
       <c r="B13" s="1">
         <v>1277.1400000000001</v>
@@ -1285,8 +1363,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
+      <c r="A14" s="4">
+        <v>45432</v>
       </c>
       <c r="B14" s="1">
         <v>1277.58</v>
@@ -1323,8 +1401,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
+      <c r="A15" s="4">
+        <v>45428</v>
       </c>
       <c r="B15" s="1">
         <v>1268.78</v>
@@ -1361,8 +1439,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
+      <c r="A16" s="4">
+        <v>45427</v>
       </c>
       <c r="B16" s="1">
         <v>1254.3900000000001</v>
@@ -1399,8 +1477,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
+      <c r="A17" s="4">
+        <v>45426</v>
       </c>
       <c r="B17" s="1">
         <v>1243.28</v>
@@ -1437,8 +1515,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
-        <v>22</v>
+      <c r="A18" s="4">
+        <v>45425</v>
       </c>
       <c r="B18" s="1">
         <v>1240.18</v>
@@ -1475,8 +1553,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
+      <c r="A19" s="4">
+        <v>45422</v>
       </c>
       <c r="B19" s="1">
         <v>1244.7</v>
@@ -1513,8 +1591,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
+      <c r="A20" s="4">
+        <v>45421</v>
       </c>
       <c r="B20" s="1">
         <v>1248.6400000000001</v>
@@ -1551,8 +1629,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
+      <c r="A21" s="4">
+        <v>45420</v>
       </c>
       <c r="B21" s="1">
         <v>1250.46</v>
@@ -1589,8 +1667,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
+      <c r="A22" s="4">
+        <v>45419</v>
       </c>
       <c r="B22" s="1">
         <v>1248.6300000000001</v>
@@ -1627,8 +1705,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
+      <c r="A23" s="4">
+        <v>45418</v>
       </c>
       <c r="B23" s="1">
         <v>1241.58</v>
@@ -1665,8 +1743,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
-        <v>28</v>
+      <c r="A24" s="4">
+        <v>45415</v>
       </c>
       <c r="B24" s="1">
         <v>1221.03</v>
@@ -1703,8 +1781,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
+      <c r="A25" s="4">
+        <v>45414</v>
       </c>
       <c r="B25" s="1">
         <v>1216.3599999999999</v>
@@ -1741,8 +1819,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
-        <v>30</v>
+      <c r="A26" s="4">
+        <v>45408</v>
       </c>
       <c r="B26" s="1">
         <v>1209.52</v>
@@ -1779,8 +1857,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
-        <v>31</v>
+      <c r="A27" s="4">
+        <v>45407</v>
       </c>
       <c r="B27" s="1">
         <v>1204.97</v>
@@ -1817,8 +1895,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
-        <v>32</v>
+      <c r="A28" s="4">
+        <v>45406</v>
       </c>
       <c r="B28" s="1">
         <v>1205.6099999999999</v>
@@ -1855,8 +1933,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
-        <v>33</v>
+      <c r="A29" s="4">
+        <v>45405</v>
       </c>
       <c r="B29" s="1">
         <v>1177.4000000000001</v>
@@ -1893,8 +1971,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
-        <v>34</v>
+      <c r="A30" s="4">
+        <v>45404</v>
       </c>
       <c r="B30" s="1">
         <v>1190.22</v>
@@ -1931,8 +2009,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
-        <v>35</v>
+      <c r="A31" s="4">
+        <v>45401</v>
       </c>
       <c r="B31" s="1">
         <v>1174.8499999999999</v>
@@ -1969,8 +2047,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
-        <v>36</v>
+      <c r="A32" s="4">
+        <v>45399</v>
       </c>
       <c r="B32" s="1">
         <v>1193.01</v>
@@ -2007,8 +2085,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
-        <v>37</v>
+      <c r="A33" s="4">
+        <v>45398</v>
       </c>
       <c r="B33" s="1">
         <v>1215.68</v>
@@ -2045,8 +2123,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
-        <v>38</v>
+      <c r="A34" s="4">
+        <v>45397</v>
       </c>
       <c r="B34" s="1">
         <v>1216.6099999999999</v>
@@ -2083,8 +2161,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>39</v>
+      <c r="A35" s="4">
+        <v>45394</v>
       </c>
       <c r="B35" s="1">
         <v>1276.5999999999999</v>
@@ -2121,8 +2199,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="4" t="s">
-        <v>40</v>
+      <c r="A36" s="4">
+        <v>45393</v>
       </c>
       <c r="B36" s="1">
         <v>1258.2</v>
@@ -2159,8 +2237,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
-        <v>41</v>
+      <c r="A37" s="4">
+        <v>45392</v>
       </c>
       <c r="B37" s="1">
         <v>1258.56</v>
@@ -2197,8 +2275,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="4" t="s">
-        <v>42</v>
+      <c r="A38" s="4">
+        <v>45391</v>
       </c>
       <c r="B38" s="1">
         <v>1262.82</v>
@@ -2235,8 +2313,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
-        <v>43</v>
+      <c r="A39" s="4">
+        <v>45390</v>
       </c>
       <c r="B39" s="1">
         <v>1250.3499999999999</v>
@@ -2273,8 +2351,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="4" t="s">
-        <v>44</v>
+      <c r="A40" s="4">
+        <v>45387</v>
       </c>
       <c r="B40" s="1">
         <v>1255.1099999999999</v>
@@ -2311,8 +2389,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="4" t="s">
-        <v>45</v>
+      <c r="A41" s="4">
+        <v>45386</v>
       </c>
       <c r="B41" s="1">
         <v>1268.25</v>
@@ -2349,8 +2427,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="4" t="s">
-        <v>46</v>
+      <c r="A42" s="4">
+        <v>45385</v>
       </c>
       <c r="B42" s="1">
         <v>1271.47</v>
@@ -2387,8 +2465,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
-        <v>47</v>
+      <c r="A43" s="4">
+        <v>45384</v>
       </c>
       <c r="B43" s="1">
         <v>1287.04</v>
@@ -2425,8 +2503,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A44" s="4" t="s">
-        <v>48</v>
+      <c r="A44" s="4">
+        <v>45383</v>
       </c>
       <c r="B44" s="1">
         <v>1281.52</v>
@@ -2463,8 +2541,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A45" s="4" t="s">
-        <v>49</v>
+      <c r="A45" s="4">
+        <v>45380</v>
       </c>
       <c r="B45" s="1">
         <v>1284.0899999999999</v>
@@ -2501,8 +2579,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A46" s="4" t="s">
-        <v>50</v>
+      <c r="A46" s="4">
+        <v>45379</v>
       </c>
       <c r="B46" s="1">
         <v>1290.18</v>
@@ -2539,8 +2617,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A47" s="4" t="s">
-        <v>51</v>
+      <c r="A47" s="4">
+        <v>45378</v>
       </c>
       <c r="B47" s="1">
         <v>1283.0899999999999</v>
@@ -2577,8 +2655,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A48" s="4" t="s">
-        <v>52</v>
+      <c r="A48" s="4">
+        <v>45377</v>
       </c>
       <c r="B48" s="1">
         <v>1282.21</v>
@@ -2615,8 +2693,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A49" s="4" t="s">
-        <v>53</v>
+      <c r="A49" s="4">
+        <v>45376</v>
       </c>
       <c r="B49" s="1">
         <v>1267.8599999999999</v>
@@ -2653,8 +2731,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A50" s="4" t="s">
-        <v>54</v>
+      <c r="A50" s="4">
+        <v>45373</v>
       </c>
       <c r="B50" s="1">
         <v>1281.8</v>
@@ -2691,8 +2769,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A51" s="4" t="s">
-        <v>55</v>
+      <c r="A51" s="4">
+        <v>45372</v>
       </c>
       <c r="B51" s="1">
         <v>1276.42</v>
@@ -2729,8 +2807,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A52" s="4" t="s">
-        <v>56</v>
+      <c r="A52" s="4">
+        <v>45371</v>
       </c>
       <c r="B52" s="1">
         <v>1260.08</v>
@@ -2767,8 +2845,8 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A53" s="4" t="s">
-        <v>57</v>
+      <c r="A53" s="4">
+        <v>45370</v>
       </c>
       <c r="B53" s="1">
         <v>1242.46</v>
@@ -2805,8 +2883,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A54" s="4" t="s">
-        <v>58</v>
+      <c r="A54" s="4">
+        <v>45369</v>
       </c>
       <c r="B54" s="1">
         <v>1243.56</v>
@@ -2843,8 +2921,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A55" s="4" t="s">
-        <v>59</v>
+      <c r="A55" s="4">
+        <v>45366</v>
       </c>
       <c r="B55" s="1">
         <v>1263.78</v>
@@ -2881,8 +2959,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A56" s="4" t="s">
-        <v>60</v>
+      <c r="A56" s="4">
+        <v>45365</v>
       </c>
       <c r="B56" s="1">
         <v>1264.26</v>
@@ -2919,8 +2997,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A57" s="4" t="s">
-        <v>61</v>
+      <c r="A57" s="4">
+        <v>45364</v>
       </c>
       <c r="B57" s="1">
         <v>1270.51</v>
@@ -2957,8 +3035,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A58" s="4" t="s">
-        <v>62</v>
+      <c r="A58" s="4">
+        <v>45363</v>
       </c>
       <c r="B58" s="1">
         <v>1245</v>
@@ -2995,8 +3073,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A59" s="4" t="s">
-        <v>63</v>
+      <c r="A59" s="4">
+        <v>45362</v>
       </c>
       <c r="B59" s="1">
         <v>1235.49</v>
@@ -3033,8 +3111,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A60" s="4" t="s">
-        <v>64</v>
+      <c r="A60" s="4">
+        <v>45359</v>
       </c>
       <c r="B60" s="1">
         <v>1247.3499999999999</v>
@@ -3071,8 +3149,8 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A61" s="4" t="s">
-        <v>65</v>
+      <c r="A61" s="4">
+        <v>45358</v>
       </c>
       <c r="B61" s="1">
         <v>1268.46</v>
@@ -3109,8 +3187,8 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A62" s="4" t="s">
-        <v>66</v>
+      <c r="A62" s="4">
+        <v>45357</v>
       </c>
       <c r="B62" s="1">
         <v>1262.73</v>
@@ -3147,8 +3225,8 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A63" s="4" t="s">
-        <v>67</v>
+      <c r="A63" s="4">
+        <v>45356</v>
       </c>
       <c r="B63" s="1">
         <v>1269.98</v>
@@ -3185,8 +3263,8 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A64" s="4" t="s">
-        <v>68</v>
+      <c r="A64" s="4">
+        <v>45355</v>
       </c>
       <c r="B64" s="1">
         <v>1261.4100000000001</v>
@@ -3223,8 +3301,8 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
-        <v>69</v>
+      <c r="A65" s="4">
+        <v>45352</v>
       </c>
       <c r="B65" s="1">
         <v>1258.28</v>
@@ -3261,8 +3339,8 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A66" s="4" t="s">
-        <v>70</v>
+      <c r="A66" s="4">
+        <v>45351</v>
       </c>
       <c r="B66" s="1">
         <v>1252.73</v>
@@ -3299,8 +3377,8 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A67" s="4" t="s">
-        <v>71</v>
+      <c r="A67" s="4">
+        <v>45350</v>
       </c>
       <c r="B67" s="1">
         <v>1254.55</v>
@@ -3337,8 +3415,8 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A68" s="4" t="s">
-        <v>72</v>
+      <c r="A68" s="4">
+        <v>45349</v>
       </c>
       <c r="B68" s="1">
         <v>1237.46</v>
@@ -3375,8 +3453,8 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A69" s="4" t="s">
-        <v>73</v>
+      <c r="A69" s="4">
+        <v>45348</v>
       </c>
       <c r="B69" s="1">
         <v>1224.17</v>
@@ -3413,8 +3491,8 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A70" s="4" t="s">
-        <v>74</v>
+      <c r="A70" s="4">
+        <v>45345</v>
       </c>
       <c r="B70" s="1">
         <v>1212</v>
@@ -3451,8 +3529,8 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A71" s="4" t="s">
-        <v>75</v>
+      <c r="A71" s="4">
+        <v>45344</v>
       </c>
       <c r="B71" s="1">
         <v>1227.31</v>
@@ -3489,8 +3567,8 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A72" s="4" t="s">
-        <v>76</v>
+      <c r="A72" s="4">
+        <v>45343</v>
       </c>
       <c r="B72" s="1">
         <v>1230.04</v>
@@ -3527,8 +3605,8 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
-        <v>77</v>
+      <c r="A73" s="4">
+        <v>45342</v>
       </c>
       <c r="B73" s="1">
         <v>1230.06</v>
@@ -3565,8 +3643,8 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A74" s="4" t="s">
-        <v>78</v>
+      <c r="A74" s="4">
+        <v>45341</v>
       </c>
       <c r="B74" s="1">
         <v>1224.97</v>
@@ -3603,8 +3681,8 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A75" s="4" t="s">
-        <v>79</v>
+      <c r="A75" s="4">
+        <v>45338</v>
       </c>
       <c r="B75" s="1">
         <v>1209.7</v>
@@ -3641,8 +3719,8 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A76" s="4" t="s">
-        <v>80</v>
+      <c r="A76" s="4">
+        <v>45337</v>
       </c>
       <c r="B76" s="1">
         <v>1202.5</v>
@@ -3679,8 +3757,8 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A77" s="4" t="s">
-        <v>81</v>
+      <c r="A77" s="4">
+        <v>45329</v>
       </c>
       <c r="B77" s="1">
         <v>1198.53</v>
@@ -3717,8 +3795,8 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A78" s="4" t="s">
-        <v>82</v>
+      <c r="A78" s="4">
+        <v>45328</v>
       </c>
       <c r="B78" s="1">
         <v>1188.48</v>
@@ -3755,8 +3833,8 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A79" s="4" t="s">
-        <v>83</v>
+      <c r="A79" s="4">
+        <v>45327</v>
       </c>
       <c r="B79" s="1">
         <v>1186.06</v>
@@ -3793,8 +3871,8 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A80" s="4" t="s">
-        <v>84</v>
+      <c r="A80" s="4">
+        <v>45324</v>
       </c>
       <c r="B80" s="1">
         <v>1172.55</v>
@@ -3831,8 +3909,8 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A81" s="4" t="s">
-        <v>85</v>
+      <c r="A81" s="4">
+        <v>45323</v>
       </c>
       <c r="B81" s="1">
         <v>1173.02</v>
@@ -3869,8 +3947,8 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A82" s="4" t="s">
-        <v>86</v>
+      <c r="A82" s="4">
+        <v>45322</v>
       </c>
       <c r="B82" s="1">
         <v>1164.31</v>
@@ -3907,8 +3985,8 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A83" s="4" t="s">
-        <v>87</v>
+      <c r="A83" s="4">
+        <v>45321</v>
       </c>
       <c r="B83" s="1">
         <v>1179.6500000000001</v>
@@ -3945,8 +4023,8 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A84" s="4" t="s">
-        <v>88</v>
+      <c r="A84" s="4">
+        <v>45320</v>
       </c>
       <c r="B84" s="1">
         <v>1175.69</v>
@@ -3983,8 +4061,8 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A85" s="4" t="s">
-        <v>89</v>
+      <c r="A85" s="4">
+        <v>45317</v>
       </c>
       <c r="B85" s="1">
         <v>1175.67</v>
@@ -4021,8 +4099,8 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A86" s="4" t="s">
-        <v>90</v>
+      <c r="A86" s="4">
+        <v>45316</v>
       </c>
       <c r="B86" s="1">
         <v>1170.3699999999999</v>
@@ -4059,8 +4137,8 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A87" s="4" t="s">
-        <v>91</v>
+      <c r="A87" s="4">
+        <v>45315</v>
       </c>
       <c r="B87" s="1">
         <v>1172.97</v>
@@ -4097,8 +4175,8 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A88" s="4" t="s">
-        <v>92</v>
+      <c r="A88" s="4">
+        <v>45314</v>
       </c>
       <c r="B88" s="1">
         <v>1177.5</v>
@@ -4135,8 +4213,8 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A89" s="4" t="s">
-        <v>93</v>
+      <c r="A89" s="4">
+        <v>45313</v>
       </c>
       <c r="B89" s="1">
         <v>1182.8599999999999</v>
@@ -4173,8 +4251,8 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A90" s="4" t="s">
-        <v>94</v>
+      <c r="A90" s="4">
+        <v>45310</v>
       </c>
       <c r="B90" s="1">
         <v>1181.5</v>
@@ -4211,8 +4289,8 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A91" s="4" t="s">
-        <v>95</v>
+      <c r="A91" s="4">
+        <v>45309</v>
       </c>
       <c r="B91" s="1">
         <v>1169.06</v>
@@ -4249,8 +4327,8 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A92" s="4" t="s">
-        <v>96</v>
+      <c r="A92" s="4">
+        <v>45308</v>
       </c>
       <c r="B92" s="1">
         <v>1162.53</v>
@@ -4287,8 +4365,8 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A93" s="4" t="s">
-        <v>97</v>
+      <c r="A93" s="4">
+        <v>45307</v>
       </c>
       <c r="B93" s="1">
         <v>1163.1199999999999</v>
@@ -4325,8 +4403,8 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A94" s="4" t="s">
-        <v>98</v>
+      <c r="A94" s="4">
+        <v>45306</v>
       </c>
       <c r="B94" s="1">
         <v>1154.1199999999999</v>
@@ -4363,8 +4441,8 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A95" s="4" t="s">
-        <v>99</v>
+      <c r="A95" s="4">
+        <v>45303</v>
       </c>
       <c r="B95" s="1">
         <v>1154.7</v>
@@ -4401,8 +4479,8 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A96" s="4" t="s">
-        <v>100</v>
+      <c r="A96" s="4">
+        <v>45302</v>
       </c>
       <c r="B96" s="1">
         <v>1162.22</v>
@@ -4439,8 +4517,8 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A97" s="4" t="s">
-        <v>101</v>
+      <c r="A97" s="4">
+        <v>45301</v>
       </c>
       <c r="B97" s="1">
         <v>1161.54</v>
@@ -4477,8 +4555,8 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A98" s="4" t="s">
-        <v>102</v>
+      <c r="A98" s="4">
+        <v>45300</v>
       </c>
       <c r="B98" s="1">
         <v>1158.5899999999999</v>
@@ -4515,8 +4593,8 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A99" s="4" t="s">
-        <v>103</v>
+      <c r="A99" s="4">
+        <v>45299</v>
       </c>
       <c r="B99" s="1">
         <v>1160.19</v>
@@ -4553,8 +4631,8 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A100" s="4" t="s">
-        <v>104</v>
+      <c r="A100" s="4">
+        <v>45296</v>
       </c>
       <c r="B100" s="1">
         <v>1154.68</v>
@@ -4591,8 +4669,8 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A101" s="4" t="s">
-        <v>105</v>
+      <c r="A101" s="4">
+        <v>45295</v>
       </c>
       <c r="B101" s="1">
         <v>1150.72</v>
@@ -4629,8 +4707,8 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A102" s="4" t="s">
-        <v>106</v>
+      <c r="A102" s="4">
+        <v>45294</v>
       </c>
       <c r="B102" s="1">
         <v>1144.17</v>
@@ -4667,8 +4745,8 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A103" s="4" t="s">
-        <v>107</v>
+      <c r="A103" s="4">
+        <v>45293</v>
       </c>
       <c r="B103" s="1">
         <v>1131.72</v>
@@ -4705,6 +4783,3945 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA68E21-2F6D-4E22-83E7-5D9A51A3E7BA}">
+  <dimension ref="A1:L103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>45293</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1131.72</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1131.72</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="F2" s="9">
+        <v>778092693</v>
+      </c>
+      <c r="G2" s="8">
+        <v>15859.89</v>
+      </c>
+      <c r="H2" s="9">
+        <v>64012774</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1235.3399999999999</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1136.3900000000001</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1139.71</v>
+      </c>
+      <c r="L2" s="10">
+        <v>1128.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="11">
+        <v>45294</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1144.17</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1144.17</v>
+      </c>
+      <c r="D3" s="12">
+        <v>12.45</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3" s="14">
+        <v>657568096</v>
+      </c>
+      <c r="G3" s="13">
+        <v>13104.71</v>
+      </c>
+      <c r="H3" s="14">
+        <v>58637762</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1532.64</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1130.53</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1144.17</v>
+      </c>
+      <c r="L3" s="15">
+        <v>1128.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>45295</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1150.72</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1150.72</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6.55</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1141646899</v>
+      </c>
+      <c r="G4" s="8">
+        <v>24324.52</v>
+      </c>
+      <c r="H4" s="9">
+        <v>36205660</v>
+      </c>
+      <c r="I4" s="7">
+        <v>909.54</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1145.49</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1160.08</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1144.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="11">
+        <v>45296</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1154.68</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1154.68</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3.96</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F5" s="14">
+        <v>760268299</v>
+      </c>
+      <c r="G5" s="13">
+        <v>15395.13</v>
+      </c>
+      <c r="H5" s="14">
+        <v>42840029</v>
+      </c>
+      <c r="I5" s="12">
+        <v>900.04</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1152.3699999999999</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1155.8399999999999</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1149.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>45299</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1160.19</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1160.19</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5.51</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="F6" s="9">
+        <v>814410599</v>
+      </c>
+      <c r="G6" s="8">
+        <v>17129.48</v>
+      </c>
+      <c r="H6" s="9">
+        <v>90997821</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2071.86</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1159.42</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1162.56</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1155.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="11">
+        <v>45300</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1158.5899999999999</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1158.5899999999999</v>
+      </c>
+      <c r="D7" s="12">
+        <v>-1.6</v>
+      </c>
+      <c r="E7" s="12">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F7" s="14">
+        <v>799457699</v>
+      </c>
+      <c r="G7" s="13">
+        <v>16877.11</v>
+      </c>
+      <c r="H7" s="14">
+        <v>65207567</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1428.54</v>
+      </c>
+      <c r="J7" s="13">
+        <v>1161.71</v>
+      </c>
+      <c r="K7" s="13">
+        <v>1162.83</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1155.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>45301</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1161.54</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1161.54</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2.95</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="9">
+        <v>936249400</v>
+      </c>
+      <c r="G8" s="8">
+        <v>19515.91</v>
+      </c>
+      <c r="H8" s="9">
+        <v>54617012</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1164.71</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1158.79</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1166.0999999999999</v>
+      </c>
+      <c r="L8" s="10">
+        <v>1155.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="11">
+        <v>45302</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1162.22</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1162.22</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="F9" s="14">
+        <v>787237200</v>
+      </c>
+      <c r="G9" s="13">
+        <v>15951.42</v>
+      </c>
+      <c r="H9" s="14">
+        <v>62066092</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1149.6300000000001</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1162.49</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1169.0999999999999</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1157.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>45303</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1154.7</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1154.7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>-7.52</v>
+      </c>
+      <c r="E10" s="7">
+        <v>-0.65</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1038665399</v>
+      </c>
+      <c r="G10" s="8">
+        <v>21536.799999999999</v>
+      </c>
+      <c r="H10" s="9">
+        <v>46007056</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1178.5</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1154.9100000000001</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1161.9100000000001</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1146.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="11">
+        <v>45306</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1154.1199999999999</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1154.1199999999999</v>
+      </c>
+      <c r="D11" s="12">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="E11" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="F11" s="14">
+        <v>559640596</v>
+      </c>
+      <c r="G11" s="13">
+        <v>11533.63</v>
+      </c>
+      <c r="H11" s="14">
+        <v>56304790</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1101.96</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1159.3699999999999</v>
+      </c>
+      <c r="K11" s="13">
+        <v>1163.75</v>
+      </c>
+      <c r="L11" s="15">
+        <v>1154.1199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>45307</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1163.1199999999999</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1163.1199999999999</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="F12" s="9">
+        <v>570974548</v>
+      </c>
+      <c r="G12" s="8">
+        <v>12200.29</v>
+      </c>
+      <c r="H12" s="9">
+        <v>40425227</v>
+      </c>
+      <c r="I12" s="7">
+        <v>930.36</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1150.31</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1163.1199999999999</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1147.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="11">
+        <v>45308</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1162.53</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1162.53</v>
+      </c>
+      <c r="D13" s="12">
+        <v>-0.59</v>
+      </c>
+      <c r="E13" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="F13" s="14">
+        <v>694214315</v>
+      </c>
+      <c r="G13" s="13">
+        <v>15066.55</v>
+      </c>
+      <c r="H13" s="14">
+        <v>74482553</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1588.89</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1161.95</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1168.46</v>
+      </c>
+      <c r="L13" s="15">
+        <v>1160.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="6">
+        <v>45309</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1169.06</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1169.06</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6.53</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F14" s="9">
+        <v>569563599</v>
+      </c>
+      <c r="G14" s="8">
+        <v>12403.75</v>
+      </c>
+      <c r="H14" s="9">
+        <v>26168351</v>
+      </c>
+      <c r="I14" s="7">
+        <v>785.95</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1164.32</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1169.73</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1162.6199999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="11">
+        <v>45310</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1181.5</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1181.5</v>
+      </c>
+      <c r="D15" s="12">
+        <v>12.44</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1.06</v>
+      </c>
+      <c r="F15" s="14">
+        <v>630781700</v>
+      </c>
+      <c r="G15" s="13">
+        <v>13925.66</v>
+      </c>
+      <c r="H15" s="14">
+        <v>31976292</v>
+      </c>
+      <c r="I15" s="12">
+        <v>865.02</v>
+      </c>
+      <c r="J15" s="13">
+        <v>1171.5</v>
+      </c>
+      <c r="K15" s="13">
+        <v>1181.5</v>
+      </c>
+      <c r="L15" s="15">
+        <v>1171.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="6">
+        <v>45313</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1182.8599999999999</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1182.8599999999999</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.36</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="F16" s="9">
+        <v>871962100</v>
+      </c>
+      <c r="G16" s="8">
+        <v>18283.740000000002</v>
+      </c>
+      <c r="H16" s="9">
+        <v>118873900</v>
+      </c>
+      <c r="I16" s="7">
+        <v>265.05</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1186.29</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1186.96</v>
+      </c>
+      <c r="L16" s="10">
+        <v>1175.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="11">
+        <v>45314</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1177.5</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1177.5</v>
+      </c>
+      <c r="D17" s="12">
+        <v>-5.36</v>
+      </c>
+      <c r="E17" s="12">
+        <v>-0.45</v>
+      </c>
+      <c r="F17" s="14">
+        <v>673842214</v>
+      </c>
+      <c r="G17" s="13">
+        <v>14849.38</v>
+      </c>
+      <c r="H17" s="14">
+        <v>83116514</v>
+      </c>
+      <c r="I17" s="13">
+        <v>2157.73</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1183.96</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1184.74</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1173.78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
+        <v>45315</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1172.97</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1172.97</v>
+      </c>
+      <c r="D18" s="7">
+        <v>-4.53</v>
+      </c>
+      <c r="E18" s="7">
+        <v>-0.38</v>
+      </c>
+      <c r="F18" s="9">
+        <v>720500188</v>
+      </c>
+      <c r="G18" s="8">
+        <v>15184.91</v>
+      </c>
+      <c r="H18" s="9">
+        <v>89134288</v>
+      </c>
+      <c r="I18" s="8">
+        <v>2159.98</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1175.58</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1180.3</v>
+      </c>
+      <c r="L18" s="16">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="11">
+        <v>45316</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1170.3699999999999</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1170.3699999999999</v>
+      </c>
+      <c r="D19" s="12">
+        <v>-2.6</v>
+      </c>
+      <c r="E19" s="12">
+        <v>-0.22</v>
+      </c>
+      <c r="F19" s="14">
+        <v>538172159</v>
+      </c>
+      <c r="G19" s="13">
+        <v>11316.69</v>
+      </c>
+      <c r="H19" s="14">
+        <v>59838659</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1350.63</v>
+      </c>
+      <c r="J19" s="13">
+        <v>1173.58</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1173.83</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1168.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="6">
+        <v>45317</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1175.67</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1175.67</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F20" s="9">
+        <v>561824219</v>
+      </c>
+      <c r="G20" s="8">
+        <v>12582.7</v>
+      </c>
+      <c r="H20" s="9">
+        <v>77007219</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1950.19</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1173.43</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1176.76</v>
+      </c>
+      <c r="L20" s="10">
+        <v>1173.43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="11">
+        <v>45320</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1175.69</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1175.69</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>552811296</v>
+      </c>
+      <c r="G21" s="13">
+        <v>11571.26</v>
+      </c>
+      <c r="H21" s="14">
+        <v>106961541</v>
+      </c>
+      <c r="I21" s="13">
+        <v>2532.0700000000002</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1177.23</v>
+      </c>
+      <c r="K21" s="13">
+        <v>1180.46</v>
+      </c>
+      <c r="L21" s="15">
+        <v>1174.8800000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="6">
+        <v>45321</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1179.6500000000001</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1179.6500000000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3.96</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F22" s="9">
+        <v>564656361</v>
+      </c>
+      <c r="G22" s="8">
+        <v>12252.06</v>
+      </c>
+      <c r="H22" s="9">
+        <v>49260437</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1314.26</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1176.02</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1179.92</v>
+      </c>
+      <c r="L22" s="10">
+        <v>1174.1300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="11">
+        <v>45322</v>
+      </c>
+      <c r="B23" s="12">
+        <v>1164.31</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1164.31</v>
+      </c>
+      <c r="D23" s="12">
+        <v>-15.34</v>
+      </c>
+      <c r="E23" s="12">
+        <v>-1.3</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1023847799</v>
+      </c>
+      <c r="G23" s="13">
+        <v>21311.919999999998</v>
+      </c>
+      <c r="H23" s="14">
+        <v>90789888</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1919.67</v>
+      </c>
+      <c r="J23" s="13">
+        <v>1181.6199999999999</v>
+      </c>
+      <c r="K23" s="13">
+        <v>1182.53</v>
+      </c>
+      <c r="L23" s="15">
+        <v>1163.1300000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="6">
+        <v>45323</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1173.02</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1173.02</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="9">
+        <v>578639354</v>
+      </c>
+      <c r="G24" s="8">
+        <v>13004.04</v>
+      </c>
+      <c r="H24" s="9">
+        <v>78512920</v>
+      </c>
+      <c r="I24" s="8">
+        <v>2028.25</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1162.78</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1174.5</v>
+      </c>
+      <c r="L24" s="10">
+        <v>1162.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="11">
+        <v>45324</v>
+      </c>
+      <c r="B25" s="12">
+        <v>1172.55</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1172.55</v>
+      </c>
+      <c r="D25" s="12">
+        <v>-0.47</v>
+      </c>
+      <c r="E25" s="12">
+        <v>-0.04</v>
+      </c>
+      <c r="F25" s="14">
+        <v>790605931</v>
+      </c>
+      <c r="G25" s="13">
+        <v>17548.12</v>
+      </c>
+      <c r="H25" s="14">
+        <v>114722511</v>
+      </c>
+      <c r="I25" s="13">
+        <v>2289.5700000000002</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1173.93</v>
+      </c>
+      <c r="K25" s="13">
+        <v>1178.27</v>
+      </c>
+      <c r="L25" s="15">
+        <v>1169.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="6">
+        <v>45327</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1186.06</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1186.06</v>
+      </c>
+      <c r="D26" s="7">
+        <v>13.51</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F26" s="9">
+        <v>769980098</v>
+      </c>
+      <c r="G26" s="8">
+        <v>16977.240000000002</v>
+      </c>
+      <c r="H26" s="9">
+        <v>97379332</v>
+      </c>
+      <c r="I26" s="8">
+        <v>2091.5500000000002</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1174.22</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1188.45</v>
+      </c>
+      <c r="L26" s="10">
+        <v>1173.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="11">
+        <v>45328</v>
+      </c>
+      <c r="B27" s="12">
+        <v>1188.48</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1188.48</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2.42</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="14">
+        <v>566198900</v>
+      </c>
+      <c r="G27" s="13">
+        <v>12839.79</v>
+      </c>
+      <c r="H27" s="14">
+        <v>52122200</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1691.47</v>
+      </c>
+      <c r="J27" s="13">
+        <v>1189.08</v>
+      </c>
+      <c r="K27" s="13">
+        <v>1190.92</v>
+      </c>
+      <c r="L27" s="15">
+        <v>1185.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="6">
+        <v>45329</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1198.53</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1198.53</v>
+      </c>
+      <c r="D28" s="7">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="F28" s="9">
+        <v>664714299</v>
+      </c>
+      <c r="G28" s="8">
+        <v>14949.47</v>
+      </c>
+      <c r="H28" s="9">
+        <v>20738318</v>
+      </c>
+      <c r="I28" s="7">
+        <v>547.62</v>
+      </c>
+      <c r="J28" s="8">
+        <v>1190.51</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1199.52</v>
+      </c>
+      <c r="L28" s="10">
+        <v>1190.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="11">
+        <v>45337</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1202.5</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1202.5</v>
+      </c>
+      <c r="D29" s="12">
+        <v>3.97</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F29" s="14">
+        <v>843733099</v>
+      </c>
+      <c r="G29" s="13">
+        <v>18620.13</v>
+      </c>
+      <c r="H29" s="14">
+        <v>24502809</v>
+      </c>
+      <c r="I29" s="12">
+        <v>761.97</v>
+      </c>
+      <c r="J29" s="13">
+        <v>1203.08</v>
+      </c>
+      <c r="K29" s="13">
+        <v>1207.56</v>
+      </c>
+      <c r="L29" s="15">
+        <v>1198.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="6">
+        <v>45338</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1209.7</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1209.7</v>
+      </c>
+      <c r="D30" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F30" s="9">
+        <v>783875499</v>
+      </c>
+      <c r="G30" s="8">
+        <v>17505.29</v>
+      </c>
+      <c r="H30" s="9">
+        <v>38261231</v>
+      </c>
+      <c r="I30" s="7">
+        <v>741.44</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1204.9000000000001</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1210.25</v>
+      </c>
+      <c r="L30" s="10">
+        <v>1204.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="11">
+        <v>45341</v>
+      </c>
+      <c r="B31" s="12">
+        <v>1224.97</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1224.97</v>
+      </c>
+      <c r="D31" s="12">
+        <v>15.27</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1.26</v>
+      </c>
+      <c r="F31" s="14">
+        <v>975154797</v>
+      </c>
+      <c r="G31" s="13">
+        <v>22875.39</v>
+      </c>
+      <c r="H31" s="14">
+        <v>68402983</v>
+      </c>
+      <c r="I31" s="13">
+        <v>1825.76</v>
+      </c>
+      <c r="J31" s="13">
+        <v>1213.24</v>
+      </c>
+      <c r="K31" s="13">
+        <v>1225.48</v>
+      </c>
+      <c r="L31" s="15">
+        <v>1212.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="6">
+        <v>45342</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1230.06</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1230.06</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5.09</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F32" s="9">
+        <v>843737899</v>
+      </c>
+      <c r="G32" s="8">
+        <v>18932.849999999999</v>
+      </c>
+      <c r="H32" s="9">
+        <v>91793296</v>
+      </c>
+      <c r="I32" s="8">
+        <v>2054.3200000000002</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1227.75</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1230.47</v>
+      </c>
+      <c r="L32" s="10">
+        <v>1222.6600000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" s="11">
+        <v>45343</v>
+      </c>
+      <c r="B33" s="12">
+        <v>1230.04</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1230.04</v>
+      </c>
+      <c r="D33" s="12">
+        <v>-0.02</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="14">
+        <v>886283799</v>
+      </c>
+      <c r="G33" s="13">
+        <v>20532.560000000001</v>
+      </c>
+      <c r="H33" s="14">
+        <v>102199481</v>
+      </c>
+      <c r="I33" s="13">
+        <v>2047.66</v>
+      </c>
+      <c r="J33" s="13">
+        <v>1231.78</v>
+      </c>
+      <c r="K33" s="13">
+        <v>1234.22</v>
+      </c>
+      <c r="L33" s="15">
+        <v>1222.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" s="6">
+        <v>45344</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1227.31</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1227.31</v>
+      </c>
+      <c r="D34" s="7">
+        <v>-2.73</v>
+      </c>
+      <c r="E34" s="7">
+        <v>-0.22</v>
+      </c>
+      <c r="F34" s="9">
+        <v>795921654</v>
+      </c>
+      <c r="G34" s="8">
+        <v>16819.86</v>
+      </c>
+      <c r="H34" s="9">
+        <v>42351736</v>
+      </c>
+      <c r="I34" s="8">
+        <v>1072.56</v>
+      </c>
+      <c r="J34" s="8">
+        <v>1229.8499999999999</v>
+      </c>
+      <c r="K34" s="8">
+        <v>1232.0899999999999</v>
+      </c>
+      <c r="L34" s="10">
+        <v>1226.1500000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" s="11">
+        <v>45345</v>
+      </c>
+      <c r="B35" s="12">
+        <v>1212</v>
+      </c>
+      <c r="C35" s="14">
+        <v>1212</v>
+      </c>
+      <c r="D35" s="12">
+        <v>-15.31</v>
+      </c>
+      <c r="E35" s="12">
+        <v>-1.25</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1327429358</v>
+      </c>
+      <c r="G35" s="13">
+        <v>30083.21</v>
+      </c>
+      <c r="H35" s="14">
+        <v>64777762</v>
+      </c>
+      <c r="I35" s="13">
+        <v>1858.67</v>
+      </c>
+      <c r="J35" s="13">
+        <v>1230.3</v>
+      </c>
+      <c r="K35" s="13">
+        <v>1240.81</v>
+      </c>
+      <c r="L35" s="15">
+        <v>1211.55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" s="6">
+        <v>45348</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1224.17</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1224.17</v>
+      </c>
+      <c r="D36" s="7">
+        <v>12.17</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9">
+        <v>834749896</v>
+      </c>
+      <c r="G36" s="8">
+        <v>19521.990000000002</v>
+      </c>
+      <c r="H36" s="9">
+        <v>51479977</v>
+      </c>
+      <c r="I36" s="8">
+        <v>1294.31</v>
+      </c>
+      <c r="J36" s="8">
+        <v>1212.93</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1225.21</v>
+      </c>
+      <c r="L36" s="10">
+        <v>1210.52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" s="11">
+        <v>45349</v>
+      </c>
+      <c r="B37" s="12">
+        <v>1237.46</v>
+      </c>
+      <c r="C37" s="13">
+        <v>1237.46</v>
+      </c>
+      <c r="D37" s="12">
+        <v>13.29</v>
+      </c>
+      <c r="E37" s="12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F37" s="14">
+        <v>916784879</v>
+      </c>
+      <c r="G37" s="13">
+        <v>21462.35</v>
+      </c>
+      <c r="H37" s="14">
+        <v>64391398</v>
+      </c>
+      <c r="I37" s="13">
+        <v>1455.41</v>
+      </c>
+      <c r="J37" s="13">
+        <v>1228.93</v>
+      </c>
+      <c r="K37" s="13">
+        <v>1237.5999999999999</v>
+      </c>
+      <c r="L37" s="15">
+        <v>1226.49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" s="6">
+        <v>45350</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1254.55</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1254.55</v>
+      </c>
+      <c r="D38" s="7">
+        <v>17.09</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1.38</v>
+      </c>
+      <c r="F38" s="9">
+        <v>899521191</v>
+      </c>
+      <c r="G38" s="8">
+        <v>21151.1</v>
+      </c>
+      <c r="H38" s="9">
+        <v>58557999</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1329.26</v>
+      </c>
+      <c r="J38" s="8">
+        <v>1241.77</v>
+      </c>
+      <c r="K38" s="8">
+        <v>1254.55</v>
+      </c>
+      <c r="L38" s="10">
+        <v>1236.32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" s="11">
+        <v>45351</v>
+      </c>
+      <c r="B39" s="12">
+        <v>1252.73</v>
+      </c>
+      <c r="C39" s="13">
+        <v>1252.73</v>
+      </c>
+      <c r="D39" s="12">
+        <v>-1.82</v>
+      </c>
+      <c r="E39" s="12">
+        <v>-0.15</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1012951595</v>
+      </c>
+      <c r="G39" s="13">
+        <v>24421.02</v>
+      </c>
+      <c r="H39" s="14">
+        <v>76972005</v>
+      </c>
+      <c r="I39" s="13">
+        <v>1673.28</v>
+      </c>
+      <c r="J39" s="13">
+        <v>1259.5899999999999</v>
+      </c>
+      <c r="K39" s="13">
+        <v>1264.3900000000001</v>
+      </c>
+      <c r="L39" s="15">
+        <v>1247.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" s="6">
+        <v>45352</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1258.28</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1258.28</v>
+      </c>
+      <c r="D40" s="7">
+        <v>5.55</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F40" s="9">
+        <v>891207771</v>
+      </c>
+      <c r="G40" s="8">
+        <v>22063.02</v>
+      </c>
+      <c r="H40" s="9">
+        <v>70109621</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1659.96</v>
+      </c>
+      <c r="J40" s="8">
+        <v>1256.72</v>
+      </c>
+      <c r="K40" s="8">
+        <v>1258.76</v>
+      </c>
+      <c r="L40" s="10">
+        <v>1247.8699999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" s="11">
+        <v>45355</v>
+      </c>
+      <c r="B41" s="12">
+        <v>1261.4100000000001</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1261.4100000000001</v>
+      </c>
+      <c r="D41" s="12">
+        <v>3.13</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1060758964</v>
+      </c>
+      <c r="G41" s="13">
+        <v>25928.35</v>
+      </c>
+      <c r="H41" s="14">
+        <v>121861420</v>
+      </c>
+      <c r="I41" s="13">
+        <v>2650.91</v>
+      </c>
+      <c r="J41" s="13">
+        <v>1264.07</v>
+      </c>
+      <c r="K41" s="13">
+        <v>1268.25</v>
+      </c>
+      <c r="L41" s="15">
+        <v>1256.54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" s="6">
+        <v>45356</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1269.98</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1269.98</v>
+      </c>
+      <c r="D42" s="7">
+        <v>8.57</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="F42" s="9">
+        <v>927988078</v>
+      </c>
+      <c r="G42" s="8">
+        <v>22174.12</v>
+      </c>
+      <c r="H42" s="9">
+        <v>82943029</v>
+      </c>
+      <c r="I42" s="8">
+        <v>2171.61</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1262.8900000000001</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1269.98</v>
+      </c>
+      <c r="L42" s="10">
+        <v>1257.81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" s="11">
+        <v>45357</v>
+      </c>
+      <c r="B43" s="12">
+        <v>1262.73</v>
+      </c>
+      <c r="C43" s="13">
+        <v>1262.73</v>
+      </c>
+      <c r="D43" s="12">
+        <v>-7.25</v>
+      </c>
+      <c r="E43" s="12">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="F43" s="14">
+        <v>1042550953</v>
+      </c>
+      <c r="G43" s="13">
+        <v>24284.639999999999</v>
+      </c>
+      <c r="H43" s="14">
+        <v>18307564</v>
+      </c>
+      <c r="I43" s="12">
+        <v>544.82000000000005</v>
+      </c>
+      <c r="J43" s="13">
+        <v>1269.8</v>
+      </c>
+      <c r="K43" s="13">
+        <v>1277.51</v>
+      </c>
+      <c r="L43" s="15">
+        <v>1256.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" s="6">
+        <v>45358</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1268.46</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1268.46</v>
+      </c>
+      <c r="D44" s="7">
+        <v>5.73</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F44" s="9">
+        <v>948313679</v>
+      </c>
+      <c r="G44" s="8">
+        <v>23538.34</v>
+      </c>
+      <c r="H44" s="9">
+        <v>65153646</v>
+      </c>
+      <c r="I44" s="8">
+        <v>1464.15</v>
+      </c>
+      <c r="J44" s="8">
+        <v>1263.23</v>
+      </c>
+      <c r="K44" s="8">
+        <v>1269.8800000000001</v>
+      </c>
+      <c r="L44" s="10">
+        <v>1260.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" s="11">
+        <v>45359</v>
+      </c>
+      <c r="B45" s="12">
+        <v>1247.3499999999999</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1247.3499999999999</v>
+      </c>
+      <c r="D45" s="12">
+        <v>-21.11</v>
+      </c>
+      <c r="E45" s="12">
+        <v>-1.66</v>
+      </c>
+      <c r="F45" s="14">
+        <v>1308498300</v>
+      </c>
+      <c r="G45" s="13">
+        <v>31520.42</v>
+      </c>
+      <c r="H45" s="14">
+        <v>36783174</v>
+      </c>
+      <c r="I45" s="12">
+        <v>946.62</v>
+      </c>
+      <c r="J45" s="13">
+        <v>1272.6199999999999</v>
+      </c>
+      <c r="K45" s="13">
+        <v>1274.3</v>
+      </c>
+      <c r="L45" s="15">
+        <v>1247.3499999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A46" s="6">
+        <v>45362</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1235.49</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1235.49</v>
+      </c>
+      <c r="D46" s="7">
+        <v>-11.86</v>
+      </c>
+      <c r="E46" s="7">
+        <v>-0.95</v>
+      </c>
+      <c r="F46" s="9">
+        <v>922753297</v>
+      </c>
+      <c r="G46" s="8">
+        <v>22546.87</v>
+      </c>
+      <c r="H46" s="9">
+        <v>51144457</v>
+      </c>
+      <c r="I46" s="8">
+        <v>1225.79</v>
+      </c>
+      <c r="J46" s="8">
+        <v>1248.32</v>
+      </c>
+      <c r="K46" s="8">
+        <v>1254.01</v>
+      </c>
+      <c r="L46" s="10">
+        <v>1233.49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A47" s="11">
+        <v>45363</v>
+      </c>
+      <c r="B47" s="12">
+        <v>1245</v>
+      </c>
+      <c r="C47" s="14">
+        <v>1245</v>
+      </c>
+      <c r="D47" s="12">
+        <v>9.51</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="F47" s="14">
+        <v>792213293</v>
+      </c>
+      <c r="G47" s="13">
+        <v>19801.98</v>
+      </c>
+      <c r="H47" s="14">
+        <v>42756568</v>
+      </c>
+      <c r="I47" s="12">
+        <v>924.74</v>
+      </c>
+      <c r="J47" s="13">
+        <v>1235.4000000000001</v>
+      </c>
+      <c r="K47" s="13">
+        <v>1248.33</v>
+      </c>
+      <c r="L47" s="15">
+        <v>1233.1400000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A48" s="6">
+        <v>45364</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1270.51</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1270.51</v>
+      </c>
+      <c r="D48" s="7">
+        <v>25.51</v>
+      </c>
+      <c r="E48" s="7">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F48" s="9">
+        <v>890291796</v>
+      </c>
+      <c r="G48" s="8">
+        <v>23581.97</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
+        <v>1250.2</v>
+      </c>
+      <c r="K48" s="8">
+        <v>1270.51</v>
+      </c>
+      <c r="L48" s="10">
+        <v>1247.6400000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A49" s="11">
+        <v>45365</v>
+      </c>
+      <c r="B49" s="12">
+        <v>1264.26</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1264.26</v>
+      </c>
+      <c r="D49" s="12">
+        <v>-6.25</v>
+      </c>
+      <c r="E49" s="12">
+        <v>-0.49</v>
+      </c>
+      <c r="F49" s="14">
+        <v>1021280996</v>
+      </c>
+      <c r="G49" s="13">
+        <v>26790.83</v>
+      </c>
+      <c r="H49" s="14">
+        <v>34804824</v>
+      </c>
+      <c r="I49" s="13">
+        <v>1138.23</v>
+      </c>
+      <c r="J49" s="14">
+        <v>1276</v>
+      </c>
+      <c r="K49" s="13">
+        <v>1276.4100000000001</v>
+      </c>
+      <c r="L49" s="15">
+        <v>1258.67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A50" s="6">
+        <v>45366</v>
+      </c>
+      <c r="B50" s="7">
+        <v>1263.78</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1263.78</v>
+      </c>
+      <c r="D50" s="7">
+        <v>-0.48</v>
+      </c>
+      <c r="E50" s="7">
+        <v>-0.04</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1008834596</v>
+      </c>
+      <c r="G50" s="8">
+        <v>26040.33</v>
+      </c>
+      <c r="H50" s="9">
+        <v>48429845</v>
+      </c>
+      <c r="I50" s="8">
+        <v>1336.93</v>
+      </c>
+      <c r="J50" s="8">
+        <v>1263.76</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1271.6300000000001</v>
+      </c>
+      <c r="L50" s="10">
+        <v>1252.3599999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A51" s="11">
+        <v>45369</v>
+      </c>
+      <c r="B51" s="12">
+        <v>1243.56</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1243.56</v>
+      </c>
+      <c r="D51" s="12">
+        <v>-20.22</v>
+      </c>
+      <c r="E51" s="12">
+        <v>-1.6</v>
+      </c>
+      <c r="F51" s="14">
+        <v>1616423591</v>
+      </c>
+      <c r="G51" s="13">
+        <v>40276.11</v>
+      </c>
+      <c r="H51" s="14">
+        <v>89673851</v>
+      </c>
+      <c r="I51" s="13">
+        <v>2801.58</v>
+      </c>
+      <c r="J51" s="13">
+        <v>1266.1099999999999</v>
+      </c>
+      <c r="K51" s="13">
+        <v>1269.9000000000001</v>
+      </c>
+      <c r="L51" s="15">
+        <v>1221.67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A52" s="6">
+        <v>45370</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1242.46</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1242.46</v>
+      </c>
+      <c r="D52" s="7">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E52" s="7">
+        <v>-0.09</v>
+      </c>
+      <c r="F52" s="9">
+        <v>782529595</v>
+      </c>
+      <c r="G52" s="8">
+        <v>19110.2</v>
+      </c>
+      <c r="H52" s="9">
+        <v>131148990</v>
+      </c>
+      <c r="I52" s="8">
+        <v>2516.67</v>
+      </c>
+      <c r="J52" s="8">
+        <v>1246.54</v>
+      </c>
+      <c r="K52" s="8">
+        <v>1249.75</v>
+      </c>
+      <c r="L52" s="10">
+        <v>1238.92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A53" s="11">
+        <v>45371</v>
+      </c>
+      <c r="B53" s="12">
+        <v>1260.08</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1260.08</v>
+      </c>
+      <c r="D53" s="12">
+        <v>17.62</v>
+      </c>
+      <c r="E53" s="12">
+        <v>1.42</v>
+      </c>
+      <c r="F53" s="14">
+        <v>859094599</v>
+      </c>
+      <c r="G53" s="13">
+        <v>21206.77</v>
+      </c>
+      <c r="H53" s="14">
+        <v>54307937</v>
+      </c>
+      <c r="I53" s="13">
+        <v>1725.1</v>
+      </c>
+      <c r="J53" s="13">
+        <v>1243.79</v>
+      </c>
+      <c r="K53" s="13">
+        <v>1261.55</v>
+      </c>
+      <c r="L53" s="15">
+        <v>1235.46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A54" s="6">
+        <v>45372</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1276.42</v>
+      </c>
+      <c r="C54" s="8">
+        <v>1276.42</v>
+      </c>
+      <c r="D54" s="7">
+        <v>16.34</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1135242297</v>
+      </c>
+      <c r="G54" s="8">
+        <v>27565.73</v>
+      </c>
+      <c r="H54" s="9">
+        <v>112532603</v>
+      </c>
+      <c r="I54" s="8">
+        <v>1937.86</v>
+      </c>
+      <c r="J54" s="8">
+        <v>1269.96</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1276.42</v>
+      </c>
+      <c r="L54" s="10">
+        <v>1264.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A55" s="11">
+        <v>45373</v>
+      </c>
+      <c r="B55" s="12">
+        <v>1281.8</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1281.8</v>
+      </c>
+      <c r="D55" s="12">
+        <v>5.38</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F55" s="14">
+        <v>1180760297</v>
+      </c>
+      <c r="G55" s="13">
+        <v>29263.89</v>
+      </c>
+      <c r="H55" s="14">
+        <v>196916593</v>
+      </c>
+      <c r="I55" s="13">
+        <v>5470.25</v>
+      </c>
+      <c r="J55" s="13">
+        <v>1281.56</v>
+      </c>
+      <c r="K55" s="13">
+        <v>1291.27</v>
+      </c>
+      <c r="L55" s="15">
+        <v>1276.3800000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A56" s="6">
+        <v>45376</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1267.8599999999999</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1267.8599999999999</v>
+      </c>
+      <c r="D56" s="7">
+        <v>-13.94</v>
+      </c>
+      <c r="E56" s="7">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="F56" s="9">
+        <v>1165944799</v>
+      </c>
+      <c r="G56" s="8">
+        <v>27231.64</v>
+      </c>
+      <c r="H56" s="9">
+        <v>76091634</v>
+      </c>
+      <c r="I56" s="8">
+        <v>2001.59</v>
+      </c>
+      <c r="J56" s="8">
+        <v>1278.8599999999999</v>
+      </c>
+      <c r="K56" s="8">
+        <v>1286.8399999999999</v>
+      </c>
+      <c r="L56" s="10">
+        <v>1264.51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A57" s="11">
+        <v>45377</v>
+      </c>
+      <c r="B57" s="12">
+        <v>1282.21</v>
+      </c>
+      <c r="C57" s="13">
+        <v>1282.21</v>
+      </c>
+      <c r="D57" s="12">
+        <v>14.35</v>
+      </c>
+      <c r="E57" s="12">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F57" s="14">
+        <v>858410797</v>
+      </c>
+      <c r="G57" s="13">
+        <v>19991.87</v>
+      </c>
+      <c r="H57" s="14">
+        <v>77989658</v>
+      </c>
+      <c r="I57" s="13">
+        <v>1803.38</v>
+      </c>
+      <c r="J57" s="13">
+        <v>1267.95</v>
+      </c>
+      <c r="K57" s="13">
+        <v>1282.5</v>
+      </c>
+      <c r="L57" s="15">
+        <v>1264.42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A58" s="6">
+        <v>45378</v>
+      </c>
+      <c r="B58" s="7">
+        <v>1283.0899999999999</v>
+      </c>
+      <c r="C58" s="8">
+        <v>1283.0899999999999</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="E58" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F58" s="9">
+        <v>803249597</v>
+      </c>
+      <c r="G58" s="8">
+        <v>19503.72</v>
+      </c>
+      <c r="H58" s="9">
+        <v>114458865</v>
+      </c>
+      <c r="I58" s="8">
+        <v>4455.5200000000004</v>
+      </c>
+      <c r="J58" s="8">
+        <v>1286.3399999999999</v>
+      </c>
+      <c r="K58" s="8">
+        <v>1286.72</v>
+      </c>
+      <c r="L58" s="10">
+        <v>1276.95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A59" s="11">
+        <v>45379</v>
+      </c>
+      <c r="B59" s="12">
+        <v>1290.18</v>
+      </c>
+      <c r="C59" s="13">
+        <v>1290.18</v>
+      </c>
+      <c r="D59" s="12">
+        <v>7.09</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F59" s="14">
+        <v>888387914</v>
+      </c>
+      <c r="G59" s="13">
+        <v>22839.5</v>
+      </c>
+      <c r="H59" s="14">
+        <v>115916673</v>
+      </c>
+      <c r="I59" s="13">
+        <v>2886.09</v>
+      </c>
+      <c r="J59" s="13">
+        <v>1293.03</v>
+      </c>
+      <c r="K59" s="13">
+        <v>1293.9000000000001</v>
+      </c>
+      <c r="L59" s="15">
+        <v>1285.52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A60" s="6">
+        <v>45380</v>
+      </c>
+      <c r="B60" s="7">
+        <v>1284.0899999999999</v>
+      </c>
+      <c r="C60" s="8">
+        <v>1284.0899999999999</v>
+      </c>
+      <c r="D60" s="7">
+        <v>-6.09</v>
+      </c>
+      <c r="E60" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="F60" s="9">
+        <v>796634597</v>
+      </c>
+      <c r="G60" s="8">
+        <v>19864.3</v>
+      </c>
+      <c r="H60" s="9">
+        <v>118165503</v>
+      </c>
+      <c r="I60" s="8">
+        <v>2848.13</v>
+      </c>
+      <c r="J60" s="8">
+        <v>1292.7</v>
+      </c>
+      <c r="K60" s="8">
+        <v>1292.75</v>
+      </c>
+      <c r="L60" s="10">
+        <v>1282.44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A61" s="11">
+        <v>45383</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1281.52</v>
+      </c>
+      <c r="C61" s="13">
+        <v>1281.52</v>
+      </c>
+      <c r="D61" s="12">
+        <v>-2.57</v>
+      </c>
+      <c r="E61" s="12">
+        <v>-0.2</v>
+      </c>
+      <c r="F61" s="14">
+        <v>899388445</v>
+      </c>
+      <c r="G61" s="13">
+        <v>21563.56</v>
+      </c>
+      <c r="H61" s="14">
+        <v>62026535</v>
+      </c>
+      <c r="I61" s="13">
+        <v>1524.39</v>
+      </c>
+      <c r="J61" s="13">
+        <v>1282.8399999999999</v>
+      </c>
+      <c r="K61" s="13">
+        <v>1286.8</v>
+      </c>
+      <c r="L61" s="15">
+        <v>1274.0899999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A62" s="6">
+        <v>45384</v>
+      </c>
+      <c r="B62" s="7">
+        <v>1287.04</v>
+      </c>
+      <c r="C62" s="8">
+        <v>1287.04</v>
+      </c>
+      <c r="D62" s="7">
+        <v>5.52</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1031022100</v>
+      </c>
+      <c r="G62" s="8">
+        <v>25531.37</v>
+      </c>
+      <c r="H62" s="9">
+        <v>54516561</v>
+      </c>
+      <c r="I62" s="8">
+        <v>1953.65</v>
+      </c>
+      <c r="J62" s="8">
+        <v>1276.3800000000001</v>
+      </c>
+      <c r="K62" s="8">
+        <v>1287.04</v>
+      </c>
+      <c r="L62" s="10">
+        <v>1268.48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A63" s="11">
+        <v>45385</v>
+      </c>
+      <c r="B63" s="12">
+        <v>1271.47</v>
+      </c>
+      <c r="C63" s="13">
+        <v>1271.47</v>
+      </c>
+      <c r="D63" s="12">
+        <v>-15.57</v>
+      </c>
+      <c r="E63" s="12">
+        <v>-1.21</v>
+      </c>
+      <c r="F63" s="14">
+        <v>995889194</v>
+      </c>
+      <c r="G63" s="13">
+        <v>25240.560000000001</v>
+      </c>
+      <c r="H63" s="14">
+        <v>79863760</v>
+      </c>
+      <c r="I63" s="13">
+        <v>2116.1999999999998</v>
+      </c>
+      <c r="J63" s="13">
+        <v>1285.3</v>
+      </c>
+      <c r="K63" s="13">
+        <v>1288.99</v>
+      </c>
+      <c r="L63" s="15">
+        <v>1271.47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A64" s="6">
+        <v>45386</v>
+      </c>
+      <c r="B64" s="7">
+        <v>1268.25</v>
+      </c>
+      <c r="C64" s="8">
+        <v>1268.25</v>
+      </c>
+      <c r="D64" s="7">
+        <v>-3.22</v>
+      </c>
+      <c r="E64" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="F64" s="9">
+        <v>921606498</v>
+      </c>
+      <c r="G64" s="8">
+        <v>22626.55</v>
+      </c>
+      <c r="H64" s="9">
+        <v>56434639</v>
+      </c>
+      <c r="I64" s="8">
+        <v>1160.3499999999999</v>
+      </c>
+      <c r="J64" s="8">
+        <v>1271.8699999999999</v>
+      </c>
+      <c r="K64" s="8">
+        <v>1277.6199999999999</v>
+      </c>
+      <c r="L64" s="10">
+        <v>1265.1199999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A65" s="11">
+        <v>45387</v>
+      </c>
+      <c r="B65" s="12">
+        <v>1255.1099999999999</v>
+      </c>
+      <c r="C65" s="13">
+        <v>1255.1099999999999</v>
+      </c>
+      <c r="D65" s="12">
+        <v>-13.14</v>
+      </c>
+      <c r="E65" s="12">
+        <v>-1.04</v>
+      </c>
+      <c r="F65" s="14">
+        <v>1040744955</v>
+      </c>
+      <c r="G65" s="13">
+        <v>24434.52</v>
+      </c>
+      <c r="H65" s="14">
+        <v>31862243</v>
+      </c>
+      <c r="I65" s="12">
+        <v>703.25</v>
+      </c>
+      <c r="J65" s="13">
+        <v>1258.58</v>
+      </c>
+      <c r="K65" s="13">
+        <v>1265.1400000000001</v>
+      </c>
+      <c r="L65" s="15">
+        <v>1253.56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A66" s="6">
+        <v>45390</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1250.3499999999999</v>
+      </c>
+      <c r="C66" s="8">
+        <v>1250.3499999999999</v>
+      </c>
+      <c r="D66" s="7">
+        <v>-4.76</v>
+      </c>
+      <c r="E66" s="7">
+        <v>-0.38</v>
+      </c>
+      <c r="F66" s="9">
+        <v>790344900</v>
+      </c>
+      <c r="G66" s="8">
+        <v>18446.18</v>
+      </c>
+      <c r="H66" s="9">
+        <v>81699030</v>
+      </c>
+      <c r="I66" s="8">
+        <v>1872.21</v>
+      </c>
+      <c r="J66" s="8">
+        <v>1255.3699999999999</v>
+      </c>
+      <c r="K66" s="8">
+        <v>1258.4000000000001</v>
+      </c>
+      <c r="L66" s="10">
+        <v>1246.8699999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A67" s="11">
+        <v>45391</v>
+      </c>
+      <c r="B67" s="12">
+        <v>1262.82</v>
+      </c>
+      <c r="C67" s="13">
+        <v>1262.82</v>
+      </c>
+      <c r="D67" s="12">
+        <v>12.47</v>
+      </c>
+      <c r="E67" s="12">
+        <v>1</v>
+      </c>
+      <c r="F67" s="14">
+        <v>648177200</v>
+      </c>
+      <c r="G67" s="13">
+        <v>15470.73</v>
+      </c>
+      <c r="H67" s="14">
+        <v>63387748</v>
+      </c>
+      <c r="I67" s="13">
+        <v>1546.61</v>
+      </c>
+      <c r="J67" s="13">
+        <v>1252.4000000000001</v>
+      </c>
+      <c r="K67" s="13">
+        <v>1262.82</v>
+      </c>
+      <c r="L67" s="15">
+        <v>1247.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A68" s="6">
+        <v>45392</v>
+      </c>
+      <c r="B68" s="7">
+        <v>1258.56</v>
+      </c>
+      <c r="C68" s="8">
+        <v>1258.56</v>
+      </c>
+      <c r="D68" s="7">
+        <v>-4.26</v>
+      </c>
+      <c r="E68" s="7">
+        <v>-0.34</v>
+      </c>
+      <c r="F68" s="9">
+        <v>633149400</v>
+      </c>
+      <c r="G68" s="8">
+        <v>15206.58</v>
+      </c>
+      <c r="H68" s="9">
+        <v>65055327</v>
+      </c>
+      <c r="I68" s="8">
+        <v>1548.68</v>
+      </c>
+      <c r="J68" s="8">
+        <v>1266.48</v>
+      </c>
+      <c r="K68" s="8">
+        <v>1268.72</v>
+      </c>
+      <c r="L68" s="10">
+        <v>1258.56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A69" s="11">
+        <v>45393</v>
+      </c>
+      <c r="B69" s="12">
+        <v>1258.2</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1258.2</v>
+      </c>
+      <c r="D69" s="12">
+        <v>-0.36</v>
+      </c>
+      <c r="E69" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="F69" s="14">
+        <v>642868552</v>
+      </c>
+      <c r="G69" s="13">
+        <v>15137.73</v>
+      </c>
+      <c r="H69" s="14">
+        <v>43901038</v>
+      </c>
+      <c r="I69" s="13">
+        <v>1406.15</v>
+      </c>
+      <c r="J69" s="13">
+        <v>1249.8800000000001</v>
+      </c>
+      <c r="K69" s="13">
+        <v>1262.03</v>
+      </c>
+      <c r="L69" s="15">
+        <v>1248.1099999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A70" s="6">
+        <v>45394</v>
+      </c>
+      <c r="B70" s="7">
+        <v>1276.5999999999999</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1276.5999999999999</v>
+      </c>
+      <c r="D70" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E70" s="7">
+        <v>1.46</v>
+      </c>
+      <c r="F70" s="9">
+        <v>696705294</v>
+      </c>
+      <c r="G70" s="8">
+        <v>17040.7</v>
+      </c>
+      <c r="H70" s="9">
+        <v>247058701</v>
+      </c>
+      <c r="I70" s="8">
+        <v>7008.18</v>
+      </c>
+      <c r="J70" s="8">
+        <v>1262.96</v>
+      </c>
+      <c r="K70" s="8">
+        <v>1278.3900000000001</v>
+      </c>
+      <c r="L70" s="10">
+        <v>1259.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A71" s="11">
+        <v>45397</v>
+      </c>
+      <c r="B71" s="12">
+        <v>1216.6099999999999</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1216.6099999999999</v>
+      </c>
+      <c r="D71" s="12">
+        <v>-59.99</v>
+      </c>
+      <c r="E71" s="12">
+        <v>-4.7</v>
+      </c>
+      <c r="F71" s="14">
+        <v>1317882799</v>
+      </c>
+      <c r="G71" s="13">
+        <v>30387.37</v>
+      </c>
+      <c r="H71" s="14">
+        <v>128180780</v>
+      </c>
+      <c r="I71" s="13">
+        <v>2981.13</v>
+      </c>
+      <c r="J71" s="13">
+        <v>1274.02</v>
+      </c>
+      <c r="K71" s="13">
+        <v>1281.81</v>
+      </c>
+      <c r="L71" s="15">
+        <v>1216.6099999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A72" s="6">
+        <v>45398</v>
+      </c>
+      <c r="B72" s="7">
+        <v>1215.68</v>
+      </c>
+      <c r="C72" s="8">
+        <v>1215.68</v>
+      </c>
+      <c r="D72" s="7">
+        <v>-0.93</v>
+      </c>
+      <c r="E72" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="F72" s="9">
+        <v>1214696265</v>
+      </c>
+      <c r="G72" s="8">
+        <v>27262.2</v>
+      </c>
+      <c r="H72" s="9">
+        <v>120785611</v>
+      </c>
+      <c r="I72" s="8">
+        <v>2704.33</v>
+      </c>
+      <c r="J72" s="8">
+        <v>1218.6400000000001</v>
+      </c>
+      <c r="K72" s="8">
+        <v>1222.45</v>
+      </c>
+      <c r="L72" s="10">
+        <v>1191.73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A73" s="11">
+        <v>45399</v>
+      </c>
+      <c r="B73" s="12">
+        <v>1193.01</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1193.01</v>
+      </c>
+      <c r="D73" s="12">
+        <v>-22.67</v>
+      </c>
+      <c r="E73" s="12">
+        <v>-1.86</v>
+      </c>
+      <c r="F73" s="14">
+        <v>766171793</v>
+      </c>
+      <c r="G73" s="13">
+        <v>17025.099999999999</v>
+      </c>
+      <c r="H73" s="14">
+        <v>89741013</v>
+      </c>
+      <c r="I73" s="13">
+        <v>1961.04</v>
+      </c>
+      <c r="J73" s="13">
+        <v>1221.47</v>
+      </c>
+      <c r="K73" s="13">
+        <v>1221.47</v>
+      </c>
+      <c r="L73" s="15">
+        <v>1193.01</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A74" s="6">
+        <v>45401</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1174.8499999999999</v>
+      </c>
+      <c r="C74" s="8">
+        <v>1174.8499999999999</v>
+      </c>
+      <c r="D74" s="7">
+        <v>-18.16</v>
+      </c>
+      <c r="E74" s="7">
+        <v>-1.52</v>
+      </c>
+      <c r="F74" s="9">
+        <v>1024739012</v>
+      </c>
+      <c r="G74" s="8">
+        <v>22481.16</v>
+      </c>
+      <c r="H74" s="9">
+        <v>45617461</v>
+      </c>
+      <c r="I74" s="8">
+        <v>1214.94</v>
+      </c>
+      <c r="J74" s="8">
+        <v>1180.8699999999999</v>
+      </c>
+      <c r="K74" s="8">
+        <v>1190.96</v>
+      </c>
+      <c r="L74" s="10">
+        <v>1165.99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A75" s="11">
+        <v>45404</v>
+      </c>
+      <c r="B75" s="12">
+        <v>1190.22</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1190.22</v>
+      </c>
+      <c r="D75" s="12">
+        <v>15.37</v>
+      </c>
+      <c r="E75" s="12">
+        <v>1.31</v>
+      </c>
+      <c r="F75" s="14">
+        <v>616214281</v>
+      </c>
+      <c r="G75" s="13">
+        <v>13931.99</v>
+      </c>
+      <c r="H75" s="14">
+        <v>84365812</v>
+      </c>
+      <c r="I75" s="13">
+        <v>1886.92</v>
+      </c>
+      <c r="J75" s="13">
+        <v>1186.6600000000001</v>
+      </c>
+      <c r="K75" s="13">
+        <v>1193.8800000000001</v>
+      </c>
+      <c r="L75" s="15">
+        <v>1181.1300000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A76" s="6">
+        <v>45405</v>
+      </c>
+      <c r="B76" s="7">
+        <v>1177.4000000000001</v>
+      </c>
+      <c r="C76" s="8">
+        <v>1177.4000000000001</v>
+      </c>
+      <c r="D76" s="7">
+        <v>-12.82</v>
+      </c>
+      <c r="E76" s="7">
+        <v>-1.08</v>
+      </c>
+      <c r="F76" s="9">
+        <v>672944408</v>
+      </c>
+      <c r="G76" s="8">
+        <v>15590.79</v>
+      </c>
+      <c r="H76" s="9">
+        <v>105178902</v>
+      </c>
+      <c r="I76" s="8">
+        <v>1892.8</v>
+      </c>
+      <c r="J76" s="8">
+        <v>1190.56</v>
+      </c>
+      <c r="K76" s="8">
+        <v>1192.8</v>
+      </c>
+      <c r="L76" s="10">
+        <v>1169.6099999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A77" s="11">
+        <v>45406</v>
+      </c>
+      <c r="B77" s="12">
+        <v>1205.6099999999999</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1205.6099999999999</v>
+      </c>
+      <c r="D77" s="12">
+        <v>28.21</v>
+      </c>
+      <c r="E77" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="F77" s="14">
+        <v>691468850</v>
+      </c>
+      <c r="G77" s="13">
+        <v>16803.419999999998</v>
+      </c>
+      <c r="H77" s="14">
+        <v>126780973</v>
+      </c>
+      <c r="I77" s="13">
+        <v>2993.78</v>
+      </c>
+      <c r="J77" s="13">
+        <v>1186.47</v>
+      </c>
+      <c r="K77" s="13">
+        <v>1207.6099999999999</v>
+      </c>
+      <c r="L77" s="15">
+        <v>1185.1300000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A78" s="6">
+        <v>45407</v>
+      </c>
+      <c r="B78" s="7">
+        <v>1204.97</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1204.97</v>
+      </c>
+      <c r="D78" s="7">
+        <v>-0.64</v>
+      </c>
+      <c r="E78" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="F78" s="9">
+        <v>489117744</v>
+      </c>
+      <c r="G78" s="8">
+        <v>12142.84</v>
+      </c>
+      <c r="H78" s="9">
+        <v>63595066</v>
+      </c>
+      <c r="I78" s="8">
+        <v>1776.62</v>
+      </c>
+      <c r="J78" s="8">
+        <v>1206.25</v>
+      </c>
+      <c r="K78" s="8">
+        <v>1208.4100000000001</v>
+      </c>
+      <c r="L78" s="10">
+        <v>1200.21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A79" s="11">
+        <v>45408</v>
+      </c>
+      <c r="B79" s="12">
+        <v>1209.52</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1209.52</v>
+      </c>
+      <c r="D79" s="12">
+        <v>4.55</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="F79" s="14">
+        <v>574398922</v>
+      </c>
+      <c r="G79" s="13">
+        <v>14009.66</v>
+      </c>
+      <c r="H79" s="14">
+        <v>44327470</v>
+      </c>
+      <c r="I79" s="13">
+        <v>1433.39</v>
+      </c>
+      <c r="J79" s="13">
+        <v>1199.83</v>
+      </c>
+      <c r="K79" s="13">
+        <v>1216.5999999999999</v>
+      </c>
+      <c r="L79" s="15">
+        <v>1198.73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A80" s="6">
+        <v>45414</v>
+      </c>
+      <c r="B80" s="7">
+        <v>1216.3599999999999</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1216.3599999999999</v>
+      </c>
+      <c r="D80" s="7">
+        <v>6.84</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F80" s="9">
+        <v>514112523</v>
+      </c>
+      <c r="G80" s="8">
+        <v>12564.67</v>
+      </c>
+      <c r="H80" s="9">
+        <v>54413257</v>
+      </c>
+      <c r="I80" s="8">
+        <v>1758.45</v>
+      </c>
+      <c r="J80" s="8">
+        <v>1212.1300000000001</v>
+      </c>
+      <c r="K80" s="8">
+        <v>1216.3599999999999</v>
+      </c>
+      <c r="L80" s="10">
+        <v>1206.28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A81" s="11">
+        <v>45415</v>
+      </c>
+      <c r="B81" s="12">
+        <v>1221.03</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1221.03</v>
+      </c>
+      <c r="D81" s="12">
+        <v>4.67</v>
+      </c>
+      <c r="E81" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="F81" s="14">
+        <v>624128817</v>
+      </c>
+      <c r="G81" s="13">
+        <v>16647.02</v>
+      </c>
+      <c r="H81" s="12">
+        <v>0</v>
+      </c>
+      <c r="I81" s="12">
+        <v>0</v>
+      </c>
+      <c r="J81" s="13">
+        <v>1222.54</v>
+      </c>
+      <c r="K81" s="13">
+        <v>1225.75</v>
+      </c>
+      <c r="L81" s="15">
+        <v>1218.33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A82" s="6">
+        <v>45418</v>
+      </c>
+      <c r="B82" s="7">
+        <v>1241.58</v>
+      </c>
+      <c r="C82" s="8">
+        <v>1241.58</v>
+      </c>
+      <c r="D82" s="7">
+        <v>20.55</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1.68</v>
+      </c>
+      <c r="F82" s="9">
+        <v>850534630</v>
+      </c>
+      <c r="G82" s="8">
+        <v>20659.45</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="8">
+        <v>1226.8900000000001</v>
+      </c>
+      <c r="K82" s="8">
+        <v>1241.58</v>
+      </c>
+      <c r="L82" s="10">
+        <v>1224.22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A83" s="11">
+        <v>45419</v>
+      </c>
+      <c r="B83" s="12">
+        <v>1248.6300000000001</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1248.6300000000001</v>
+      </c>
+      <c r="D83" s="12">
+        <v>7.05</v>
+      </c>
+      <c r="E83" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F83" s="14">
+        <v>705355094</v>
+      </c>
+      <c r="G83" s="13">
+        <v>18347.099999999999</v>
+      </c>
+      <c r="H83" s="12">
+        <v>0</v>
+      </c>
+      <c r="I83" s="12">
+        <v>0</v>
+      </c>
+      <c r="J83" s="13">
+        <v>1245.5</v>
+      </c>
+      <c r="K83" s="13">
+        <v>1250.6300000000001</v>
+      </c>
+      <c r="L83" s="15">
+        <v>1240.0899999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A84" s="6">
+        <v>45420</v>
+      </c>
+      <c r="B84" s="7">
+        <v>1250.46</v>
+      </c>
+      <c r="C84" s="8">
+        <v>1250.46</v>
+      </c>
+      <c r="D84" s="7">
+        <v>1.83</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="F84" s="9">
+        <v>820182331</v>
+      </c>
+      <c r="G84" s="8">
+        <v>19260.84</v>
+      </c>
+      <c r="H84" s="9">
+        <v>160049641</v>
+      </c>
+      <c r="I84" s="8">
+        <v>3998.02</v>
+      </c>
+      <c r="J84" s="8">
+        <v>1243.32</v>
+      </c>
+      <c r="K84" s="8">
+        <v>1251.6199999999999</v>
+      </c>
+      <c r="L84" s="10">
+        <v>1234.76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A85" s="11">
+        <v>45421</v>
+      </c>
+      <c r="B85" s="12">
+        <v>1248.6400000000001</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1248.6400000000001</v>
+      </c>
+      <c r="D85" s="12">
+        <v>-1.82</v>
+      </c>
+      <c r="E85" s="12">
+        <v>-0.15</v>
+      </c>
+      <c r="F85" s="14">
+        <v>641634639</v>
+      </c>
+      <c r="G85" s="13">
+        <v>16539.259999999998</v>
+      </c>
+      <c r="H85" s="14">
+        <v>128401877</v>
+      </c>
+      <c r="I85" s="13">
+        <v>3411.67</v>
+      </c>
+      <c r="J85" s="13">
+        <v>1252.81</v>
+      </c>
+      <c r="K85" s="13">
+        <v>1256.8</v>
+      </c>
+      <c r="L85" s="15">
+        <v>1243.29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A86" s="6">
+        <v>45422</v>
+      </c>
+      <c r="B86" s="7">
+        <v>1244.7</v>
+      </c>
+      <c r="C86" s="8">
+        <v>1244.7</v>
+      </c>
+      <c r="D86" s="7">
+        <v>-3.94</v>
+      </c>
+      <c r="E86" s="7">
+        <v>-0.32</v>
+      </c>
+      <c r="F86" s="9">
+        <v>668302103</v>
+      </c>
+      <c r="G86" s="8">
+        <v>16253.23</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="8">
+        <v>1251.78</v>
+      </c>
+      <c r="K86" s="8">
+        <v>1252.5</v>
+      </c>
+      <c r="L86" s="10">
+        <v>1237.46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A87" s="11">
+        <v>45425</v>
+      </c>
+      <c r="B87" s="12">
+        <v>1240.18</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1240.18</v>
+      </c>
+      <c r="D87" s="12">
+        <v>-4.5199999999999996</v>
+      </c>
+      <c r="E87" s="12">
+        <v>-0.36</v>
+      </c>
+      <c r="F87" s="14">
+        <v>637079540</v>
+      </c>
+      <c r="G87" s="14">
+        <v>14759</v>
+      </c>
+      <c r="H87" s="14">
+        <v>101999900</v>
+      </c>
+      <c r="I87" s="13">
+        <v>2423.5300000000002</v>
+      </c>
+      <c r="J87" s="13">
+        <v>1248.19</v>
+      </c>
+      <c r="K87" s="13">
+        <v>1249.2</v>
+      </c>
+      <c r="L87" s="15">
+        <v>1233.56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A88" s="6">
+        <v>45426</v>
+      </c>
+      <c r="B88" s="7">
+        <v>1243.28</v>
+      </c>
+      <c r="C88" s="8">
+        <v>1243.28</v>
+      </c>
+      <c r="D88" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F88" s="9">
+        <v>529128121</v>
+      </c>
+      <c r="G88" s="8">
+        <v>13131.44</v>
+      </c>
+      <c r="H88" s="9">
+        <v>109315411</v>
+      </c>
+      <c r="I88" s="8">
+        <v>2438.48</v>
+      </c>
+      <c r="J88" s="8">
+        <v>1246.23</v>
+      </c>
+      <c r="K88" s="8">
+        <v>1252.52</v>
+      </c>
+      <c r="L88" s="10">
+        <v>1240.8800000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A89" s="11">
+        <v>45427</v>
+      </c>
+      <c r="B89" s="12">
+        <v>1254.3900000000001</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1254.3900000000001</v>
+      </c>
+      <c r="D89" s="12">
+        <v>11.11</v>
+      </c>
+      <c r="E89" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="F89" s="14">
+        <v>759307900</v>
+      </c>
+      <c r="G89" s="13">
+        <v>19365.41</v>
+      </c>
+      <c r="H89" s="14">
+        <v>115373164</v>
+      </c>
+      <c r="I89" s="13">
+        <v>2671.12</v>
+      </c>
+      <c r="J89" s="13">
+        <v>1248.6099999999999</v>
+      </c>
+      <c r="K89" s="13">
+        <v>1257.92</v>
+      </c>
+      <c r="L89" s="15">
+        <v>1248.02</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A90" s="6">
+        <v>45428</v>
+      </c>
+      <c r="B90" s="7">
+        <v>1268.78</v>
+      </c>
+      <c r="C90" s="8">
+        <v>1268.78</v>
+      </c>
+      <c r="D90" s="7">
+        <v>14.39</v>
+      </c>
+      <c r="E90" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F90" s="9">
+        <v>808757789</v>
+      </c>
+      <c r="G90" s="8">
+        <v>20691.38</v>
+      </c>
+      <c r="H90" s="9">
+        <v>75945447</v>
+      </c>
+      <c r="I90" s="8">
+        <v>1977.36</v>
+      </c>
+      <c r="J90" s="8">
+        <v>1264.51</v>
+      </c>
+      <c r="K90" s="8">
+        <v>1271.6600000000001</v>
+      </c>
+      <c r="L90" s="10">
+        <v>1261.19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A91" s="11">
+        <v>45432</v>
+      </c>
+      <c r="B91" s="12">
+        <v>1277.58</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1277.58</v>
+      </c>
+      <c r="D91" s="12">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E91" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="F91" s="14">
+        <v>957731071</v>
+      </c>
+      <c r="G91" s="13">
+        <v>23376.02</v>
+      </c>
+      <c r="H91" s="14">
+        <v>192734825</v>
+      </c>
+      <c r="I91" s="13">
+        <v>4045.9</v>
+      </c>
+      <c r="J91" s="13">
+        <v>1281.5</v>
+      </c>
+      <c r="K91" s="13">
+        <v>1285.19</v>
+      </c>
+      <c r="L91" s="15">
+        <v>1277.3599999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A92" s="6">
+        <v>45433</v>
+      </c>
+      <c r="B92" s="7">
+        <v>1277.1400000000001</v>
+      </c>
+      <c r="C92" s="8">
+        <v>1277.1400000000001</v>
+      </c>
+      <c r="D92" s="7">
+        <v>-0.44</v>
+      </c>
+      <c r="E92" s="7">
+        <v>-0.03</v>
+      </c>
+      <c r="F92" s="9">
+        <v>838130935</v>
+      </c>
+      <c r="G92" s="8">
+        <v>20468.59</v>
+      </c>
+      <c r="H92" s="9">
+        <v>130472865</v>
+      </c>
+      <c r="I92" s="8">
+        <v>3345.23</v>
+      </c>
+      <c r="J92" s="8">
+        <v>1277.8499999999999</v>
+      </c>
+      <c r="K92" s="8">
+        <v>1281.29</v>
+      </c>
+      <c r="L92" s="10">
+        <v>1267.29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A93" s="11">
+        <v>45434</v>
+      </c>
+      <c r="B93" s="12">
+        <v>1266.9100000000001</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1266.9100000000001</v>
+      </c>
+      <c r="D93" s="12">
+        <v>-10.23</v>
+      </c>
+      <c r="E93" s="12">
+        <v>-0.8</v>
+      </c>
+      <c r="F93" s="14">
+        <v>987225260</v>
+      </c>
+      <c r="G93" s="13">
+        <v>24299.94</v>
+      </c>
+      <c r="H93" s="14">
+        <v>148279094</v>
+      </c>
+      <c r="I93" s="13">
+        <v>3656.29</v>
+      </c>
+      <c r="J93" s="13">
+        <v>1280.26</v>
+      </c>
+      <c r="K93" s="13">
+        <v>1283.06</v>
+      </c>
+      <c r="L93" s="15">
+        <v>1263.8699999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A94" s="6">
+        <v>45435</v>
+      </c>
+      <c r="B94" s="7">
+        <v>1281.03</v>
+      </c>
+      <c r="C94" s="8">
+        <v>1281.03</v>
+      </c>
+      <c r="D94" s="7">
+        <v>14.12</v>
+      </c>
+      <c r="E94" s="7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F94" s="9">
+        <v>833706141</v>
+      </c>
+      <c r="G94" s="8">
+        <v>20887.099999999999</v>
+      </c>
+      <c r="H94" s="9">
+        <v>89676359</v>
+      </c>
+      <c r="I94" s="8">
+        <v>2024.95</v>
+      </c>
+      <c r="J94" s="8">
+        <v>1265.5999999999999</v>
+      </c>
+      <c r="K94" s="8">
+        <v>1281.03</v>
+      </c>
+      <c r="L94" s="10">
+        <v>1262.29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A95" s="11">
+        <v>45436</v>
+      </c>
+      <c r="B95" s="12">
+        <v>1261.93</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1261.93</v>
+      </c>
+      <c r="D95" s="12">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="E95" s="12">
+        <v>-1.49</v>
+      </c>
+      <c r="F95" s="14">
+        <v>1244899730</v>
+      </c>
+      <c r="G95" s="13">
+        <v>32414.29</v>
+      </c>
+      <c r="H95" s="14">
+        <v>122612331</v>
+      </c>
+      <c r="I95" s="13">
+        <v>3103.33</v>
+      </c>
+      <c r="J95" s="13">
+        <v>1276.68</v>
+      </c>
+      <c r="K95" s="13">
+        <v>1285.07</v>
+      </c>
+      <c r="L95" s="15">
+        <v>1250.28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A96" s="6">
+        <v>45439</v>
+      </c>
+      <c r="B96" s="7">
+        <v>1267.68</v>
+      </c>
+      <c r="C96" s="8">
+        <v>1267.68</v>
+      </c>
+      <c r="D96" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="E96" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="F96" s="9">
+        <v>598633585</v>
+      </c>
+      <c r="G96" s="8">
+        <v>14844.76</v>
+      </c>
+      <c r="H96" s="9">
+        <v>109220225</v>
+      </c>
+      <c r="I96" s="8">
+        <v>2404.75</v>
+      </c>
+      <c r="J96" s="8">
+        <v>1263.46</v>
+      </c>
+      <c r="K96" s="8">
+        <v>1267.68</v>
+      </c>
+      <c r="L96" s="10">
+        <v>1257.27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A97" s="11">
+        <v>45440</v>
+      </c>
+      <c r="B97" s="12">
+        <v>1281.73</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1281.73</v>
+      </c>
+      <c r="D97" s="12">
+        <v>14.05</v>
+      </c>
+      <c r="E97" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F97" s="14">
+        <v>744093359</v>
+      </c>
+      <c r="G97" s="13">
+        <v>19159.13</v>
+      </c>
+      <c r="H97" s="14">
+        <v>120920968</v>
+      </c>
+      <c r="I97" s="13">
+        <v>2833.15</v>
+      </c>
+      <c r="J97" s="13">
+        <v>1272.23</v>
+      </c>
+      <c r="K97" s="13">
+        <v>1281.73</v>
+      </c>
+      <c r="L97" s="15">
+        <v>1269.3699999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A98" s="6">
+        <v>45441</v>
+      </c>
+      <c r="B98" s="7">
+        <v>1272.6400000000001</v>
+      </c>
+      <c r="C98" s="8">
+        <v>1272.6400000000001</v>
+      </c>
+      <c r="D98" s="7">
+        <v>-9.09</v>
+      </c>
+      <c r="E98" s="7">
+        <v>-0.71</v>
+      </c>
+      <c r="F98" s="9">
+        <v>967107344</v>
+      </c>
+      <c r="G98" s="8">
+        <v>22957.599999999999</v>
+      </c>
+      <c r="H98" s="9">
+        <v>105357912</v>
+      </c>
+      <c r="I98" s="8">
+        <v>2472.7399999999998</v>
+      </c>
+      <c r="J98" s="8">
+        <v>1284.74</v>
+      </c>
+      <c r="K98" s="8">
+        <v>1285.6300000000001</v>
+      </c>
+      <c r="L98" s="10">
+        <v>1271.5999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A99" s="11">
+        <v>45442</v>
+      </c>
+      <c r="B99" s="12">
+        <v>1266.32</v>
+      </c>
+      <c r="C99" s="13">
+        <v>1266.32</v>
+      </c>
+      <c r="D99" s="12">
+        <v>-6.32</v>
+      </c>
+      <c r="E99" s="12">
+        <v>-0.5</v>
+      </c>
+      <c r="F99" s="14">
+        <v>958527286</v>
+      </c>
+      <c r="G99" s="13">
+        <v>23730.45</v>
+      </c>
+      <c r="H99" s="14">
+        <v>92054663</v>
+      </c>
+      <c r="I99" s="13">
+        <v>2122.75</v>
+      </c>
+      <c r="J99" s="13">
+        <v>1264.45</v>
+      </c>
+      <c r="K99" s="13">
+        <v>1269.07</v>
+      </c>
+      <c r="L99" s="15">
+        <v>1251.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A100" s="6">
+        <v>45443</v>
+      </c>
+      <c r="B100" s="7">
+        <v>1261.72</v>
+      </c>
+      <c r="C100" s="8">
+        <v>1261.72</v>
+      </c>
+      <c r="D100" s="7">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="E100" s="7">
+        <v>-0.36</v>
+      </c>
+      <c r="F100" s="9">
+        <v>617744480</v>
+      </c>
+      <c r="G100" s="8">
+        <v>15446.56</v>
+      </c>
+      <c r="H100" s="9">
+        <v>143847125</v>
+      </c>
+      <c r="I100" s="8">
+        <v>3161.41</v>
+      </c>
+      <c r="J100" s="8">
+        <v>1268.3699999999999</v>
+      </c>
+      <c r="K100" s="8">
+        <v>1271.07</v>
+      </c>
+      <c r="L100" s="10">
+        <v>1261.43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A101" s="11">
+        <v>45446</v>
+      </c>
+      <c r="B101" s="12">
+        <v>1280</v>
+      </c>
+      <c r="C101" s="14">
+        <v>1280</v>
+      </c>
+      <c r="D101" s="12">
+        <v>18.28</v>
+      </c>
+      <c r="E101" s="12">
+        <v>1.45</v>
+      </c>
+      <c r="F101" s="14">
+        <v>930986500</v>
+      </c>
+      <c r="G101" s="13">
+        <v>23221.9</v>
+      </c>
+      <c r="H101" s="14">
+        <v>107888176</v>
+      </c>
+      <c r="I101" s="13">
+        <v>2662.32</v>
+      </c>
+      <c r="J101" s="13">
+        <v>1271.6500000000001</v>
+      </c>
+      <c r="K101" s="13">
+        <v>1284.48</v>
+      </c>
+      <c r="L101" s="15">
+        <v>1271.6500000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A102" s="6">
+        <v>45447</v>
+      </c>
+      <c r="B102" s="7">
+        <v>1283.52</v>
+      </c>
+      <c r="C102" s="8">
+        <v>1283.52</v>
+      </c>
+      <c r="D102" s="7">
+        <v>3.52</v>
+      </c>
+      <c r="E102" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="F102" s="9">
+        <v>785852881</v>
+      </c>
+      <c r="G102" s="8">
+        <v>20167.43</v>
+      </c>
+      <c r="H102" s="9">
+        <v>127029500</v>
+      </c>
+      <c r="I102" s="8">
+        <v>3226.88</v>
+      </c>
+      <c r="J102" s="8">
+        <v>1285.51</v>
+      </c>
+      <c r="K102" s="8">
+        <v>1289.31</v>
+      </c>
+      <c r="L102" s="10">
+        <v>1281.98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A103" s="11">
+        <v>45448</v>
+      </c>
+      <c r="B103" s="12">
+        <v>1284.3499999999999</v>
+      </c>
+      <c r="C103" s="13">
+        <v>1284.3499999999999</v>
+      </c>
+      <c r="D103" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="E103" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="F103" s="14">
+        <v>810151817</v>
+      </c>
+      <c r="G103" s="13">
+        <v>21420.91</v>
+      </c>
+      <c r="H103" s="14">
+        <v>112633111</v>
+      </c>
+      <c r="I103" s="13">
+        <v>2552.3200000000002</v>
+      </c>
+      <c r="J103" s="13">
+        <v>1287.1199999999999</v>
+      </c>
+      <c r="K103" s="13">
+        <v>1293.93</v>
+      </c>
+      <c r="L103" s="15">
+        <v>1284.3499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{ADA68E21-2F6D-4E22-83E7-5D9A51A3E7BA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>